--- a/excel/finished/焦化/CK67-干熄焦-出焦除尘报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-干熄焦-出焦除尘报表（日）.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="_outCoke_day_hour" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_speed_day_hour" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -3641,71 +3641,71 @@
         <v>0</v>
       </c>
       <c r="C6" s="26" t="str">
-        <f>IF(_outCoke_day_hour!A2="","",_outCoke_day_hour!A2)</f>
+        <f>IF(_speed_day_hour!A2="","",_speed_day_hour!A2)</f>
         <v/>
       </c>
       <c r="D6" s="26" t="str">
-        <f>IF(_outCoke_day_hour!B2="","",_outCoke_day_hour!B2)</f>
+        <f>IF(_speed_day_hour!B2="","",_speed_day_hour!B2)</f>
         <v/>
       </c>
       <c r="E6" s="26" t="str">
-        <f>IF(_outCoke_day_hour!C2="","",_outCoke_day_hour!C2)</f>
+        <f>IF(_speed_day_hour!C2="","",_speed_day_hour!C2)</f>
         <v/>
       </c>
       <c r="F6" s="26" t="str">
-        <f>IF(_outCoke_day_hour!D2="","",_outCoke_day_hour!D2)</f>
+        <f>IF(_speed_day_hour!D2="","",_speed_day_hour!D2)</f>
         <v/>
       </c>
       <c r="G6" s="26" t="str">
-        <f>IF(_outCoke_day_hour!E2="","",_outCoke_day_hour!E2)</f>
+        <f>IF(_speed_day_hour!E2="","",_speed_day_hour!E2)</f>
         <v/>
       </c>
       <c r="H6" s="26" t="str">
-        <f>IF(_outCoke_day_hour!F2="","",_outCoke_day_hour!F2)</f>
+        <f>IF(_speed_day_hour!F2="","",_speed_day_hour!F2)</f>
         <v/>
       </c>
       <c r="I6" s="26" t="str">
-        <f>IF(_outCoke_day_hour!G2="","",_outCoke_day_hour!G2)</f>
+        <f>IF(_speed_day_hour!G2="","",_speed_day_hour!G2)</f>
         <v/>
       </c>
       <c r="J6" s="27" t="str">
-        <f>IF(_outCoke_day_hour!H2="","",_outCoke_day_hour!H2)</f>
+        <f>IF(_speed_day_hour!H2="","",_speed_day_hour!H2)</f>
         <v/>
       </c>
       <c r="K6" s="26" t="str">
-        <f>IF(_outCoke_day_hour!I2="","",_outCoke_day_hour!I2)</f>
+        <f>IF(_speed_day_hour!I2="","",_speed_day_hour!I2)</f>
         <v/>
       </c>
       <c r="L6" s="26" t="str">
-        <f>IF(_outCoke_day_hour!J2="","",_outCoke_day_hour!J2)</f>
+        <f>IF(_speed_day_hour!J2="","",_speed_day_hour!J2)</f>
         <v/>
       </c>
       <c r="M6" s="27" t="str">
-        <f>IF(_outCoke_day_hour!K2="","",_outCoke_day_hour!K2)</f>
+        <f>IF(_speed_day_hour!K2="","",_speed_day_hour!K2)</f>
         <v/>
       </c>
       <c r="N6" s="27" t="str">
-        <f>IF(_outCoke_day_hour!L2="","",_outCoke_day_hour!L2)</f>
+        <f>IF(_speed_day_hour!L2="","",_speed_day_hour!L2)</f>
         <v/>
       </c>
       <c r="O6" s="27" t="str">
-        <f>IF(_outCoke_day_hour!M2="","",_outCoke_day_hour!M2)</f>
+        <f>IF(_speed_day_hour!M2="","",_speed_day_hour!M2)</f>
         <v/>
       </c>
       <c r="P6" s="27" t="str">
-        <f>IF(_outCoke_day_hour!N2="","",_outCoke_day_hour!N2)</f>
+        <f>IF(_speed_day_hour!N2="","",_speed_day_hour!N2)</f>
         <v/>
       </c>
       <c r="Q6" s="27" t="str">
-        <f>IF(_outCoke_day_hour!O2="","",_outCoke_day_hour!O2)</f>
+        <f>IF(_speed_day_hour!O2="","",_speed_day_hour!O2)</f>
         <v/>
       </c>
       <c r="R6" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P2="","",_outCoke_day_hour!P2)</f>
+        <f>IF(_speed_day_hour!P2="","",_speed_day_hour!P2)</f>
         <v/>
       </c>
       <c r="S6" s="29" t="str">
-        <f>IF(_outCoke_day_hour!Q2="","",_outCoke_day_hour!Q2)</f>
+        <f>IF(_speed_day_hour!Q2="","",_speed_day_hour!Q2)</f>
         <v/>
       </c>
       <c r="T6" s="2"/>
@@ -3950,71 +3950,71 @@
         <v>0.041666666666666699</v>
       </c>
       <c r="C7" s="26" t="str">
-        <f>IF(_outCoke_day_hour!A3="","",_outCoke_day_hour!A3)</f>
+        <f>IF(_speed_day_hour!A3="","",_speed_day_hour!A3)</f>
         <v/>
       </c>
       <c r="D7" s="26" t="str">
-        <f>IF(_outCoke_day_hour!B3="","",_outCoke_day_hour!B3)</f>
+        <f>IF(_speed_day_hour!B3="","",_speed_day_hour!B3)</f>
         <v/>
       </c>
       <c r="E7" s="26" t="str">
-        <f>IF(_outCoke_day_hour!C3="","",_outCoke_day_hour!C3)</f>
+        <f>IF(_speed_day_hour!C3="","",_speed_day_hour!C3)</f>
         <v/>
       </c>
       <c r="F7" s="26" t="str">
-        <f>IF(_outCoke_day_hour!D3="","",_outCoke_day_hour!D3)</f>
+        <f>IF(_speed_day_hour!D3="","",_speed_day_hour!D3)</f>
         <v/>
       </c>
       <c r="G7" s="26" t="str">
-        <f>IF(_outCoke_day_hour!E3="","",_outCoke_day_hour!E3)</f>
+        <f>IF(_speed_day_hour!E3="","",_speed_day_hour!E3)</f>
         <v/>
       </c>
       <c r="H7" s="26" t="str">
-        <f>IF(_outCoke_day_hour!F3="","",_outCoke_day_hour!F3)</f>
+        <f>IF(_speed_day_hour!F3="","",_speed_day_hour!F3)</f>
         <v/>
       </c>
       <c r="I7" s="26" t="str">
-        <f>IF(_outCoke_day_hour!G3="","",_outCoke_day_hour!G3)</f>
+        <f>IF(_speed_day_hour!G3="","",_speed_day_hour!G3)</f>
         <v/>
       </c>
       <c r="J7" s="27" t="str">
-        <f>IF(_outCoke_day_hour!H3="","",_outCoke_day_hour!H3)</f>
+        <f>IF(_speed_day_hour!H3="","",_speed_day_hour!H3)</f>
         <v/>
       </c>
       <c r="K7" s="26" t="str">
-        <f>IF(_outCoke_day_hour!I3="","",_outCoke_day_hour!I3)</f>
+        <f>IF(_speed_day_hour!I3="","",_speed_day_hour!I3)</f>
         <v/>
       </c>
       <c r="L7" s="26" t="str">
-        <f>IF(_outCoke_day_hour!J3="","",_outCoke_day_hour!J3)</f>
+        <f>IF(_speed_day_hour!J3="","",_speed_day_hour!J3)</f>
         <v/>
       </c>
       <c r="M7" s="27" t="str">
-        <f>IF(_outCoke_day_hour!K3="","",_outCoke_day_hour!K3)</f>
+        <f>IF(_speed_day_hour!K3="","",_speed_day_hour!K3)</f>
         <v/>
       </c>
       <c r="N7" s="27" t="str">
-        <f>IF(_outCoke_day_hour!L3="","",_outCoke_day_hour!L3)</f>
+        <f>IF(_speed_day_hour!L3="","",_speed_day_hour!L3)</f>
         <v/>
       </c>
       <c r="O7" s="27" t="str">
-        <f>IF(_outCoke_day_hour!M3="","",_outCoke_day_hour!M3)</f>
+        <f>IF(_speed_day_hour!M3="","",_speed_day_hour!M3)</f>
         <v/>
       </c>
       <c r="P7" s="27" t="str">
-        <f>IF(_outCoke_day_hour!N3="","",_outCoke_day_hour!N3)</f>
+        <f>IF(_speed_day_hour!N3="","",_speed_day_hour!N3)</f>
         <v/>
       </c>
       <c r="Q7" s="27" t="str">
-        <f>IF(_outCoke_day_hour!O3="","",_outCoke_day_hour!O3)</f>
+        <f>IF(_speed_day_hour!O3="","",_speed_day_hour!O3)</f>
         <v/>
       </c>
       <c r="R7" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P3="","",_outCoke_day_hour!P3)</f>
+        <f>IF(_speed_day_hour!P3="","",_speed_day_hour!P3)</f>
         <v/>
       </c>
       <c r="S7" s="29" t="str">
-        <f>IF(_outCoke_day_hour!Q3="","",_outCoke_day_hour!Q3)</f>
+        <f>IF(_speed_day_hour!Q3="","",_speed_day_hour!Q3)</f>
         <v/>
       </c>
       <c r="T7" s="2"/>
@@ -4259,71 +4259,71 @@
         <v>0.083333333333333301</v>
       </c>
       <c r="C8" s="26" t="str">
-        <f>IF(_outCoke_day_hour!A4="","",_outCoke_day_hour!A4)</f>
+        <f>IF(_speed_day_hour!A4="","",_speed_day_hour!A4)</f>
         <v/>
       </c>
       <c r="D8" s="26" t="str">
-        <f>IF(_outCoke_day_hour!B4="","",_outCoke_day_hour!B4)</f>
+        <f>IF(_speed_day_hour!B4="","",_speed_day_hour!B4)</f>
         <v/>
       </c>
       <c r="E8" s="26" t="str">
-        <f>IF(_outCoke_day_hour!C4="","",_outCoke_day_hour!C4)</f>
+        <f>IF(_speed_day_hour!C4="","",_speed_day_hour!C4)</f>
         <v/>
       </c>
       <c r="F8" s="26" t="str">
-        <f>IF(_outCoke_day_hour!D4="","",_outCoke_day_hour!D4)</f>
+        <f>IF(_speed_day_hour!D4="","",_speed_day_hour!D4)</f>
         <v/>
       </c>
       <c r="G8" s="26" t="str">
-        <f>IF(_outCoke_day_hour!E4="","",_outCoke_day_hour!E4)</f>
+        <f>IF(_speed_day_hour!E4="","",_speed_day_hour!E4)</f>
         <v/>
       </c>
       <c r="H8" s="26" t="str">
-        <f>IF(_outCoke_day_hour!F4="","",_outCoke_day_hour!F4)</f>
+        <f>IF(_speed_day_hour!F4="","",_speed_day_hour!F4)</f>
         <v/>
       </c>
       <c r="I8" s="26" t="str">
-        <f>IF(_outCoke_day_hour!G4="","",_outCoke_day_hour!G4)</f>
+        <f>IF(_speed_day_hour!G4="","",_speed_day_hour!G4)</f>
         <v/>
       </c>
       <c r="J8" s="27" t="str">
-        <f>IF(_outCoke_day_hour!H4="","",_outCoke_day_hour!H4)</f>
+        <f>IF(_speed_day_hour!H4="","",_speed_day_hour!H4)</f>
         <v/>
       </c>
       <c r="K8" s="26" t="str">
-        <f>IF(_outCoke_day_hour!I4="","",_outCoke_day_hour!I4)</f>
+        <f>IF(_speed_day_hour!I4="","",_speed_day_hour!I4)</f>
         <v/>
       </c>
       <c r="L8" s="26" t="str">
-        <f>IF(_outCoke_day_hour!J4="","",_outCoke_day_hour!J4)</f>
+        <f>IF(_speed_day_hour!J4="","",_speed_day_hour!J4)</f>
         <v/>
       </c>
       <c r="M8" s="27" t="str">
-        <f>IF(_outCoke_day_hour!K4="","",_outCoke_day_hour!K4)</f>
+        <f>IF(_speed_day_hour!K4="","",_speed_day_hour!K4)</f>
         <v/>
       </c>
       <c r="N8" s="27" t="str">
-        <f>IF(_outCoke_day_hour!L4="","",_outCoke_day_hour!L4)</f>
+        <f>IF(_speed_day_hour!L4="","",_speed_day_hour!L4)</f>
         <v/>
       </c>
       <c r="O8" s="27" t="str">
-        <f>IF(_outCoke_day_hour!M4="","",_outCoke_day_hour!M4)</f>
+        <f>IF(_speed_day_hour!M4="","",_speed_day_hour!M4)</f>
         <v/>
       </c>
       <c r="P8" s="27" t="str">
-        <f>IF(_outCoke_day_hour!N4="","",_outCoke_day_hour!N4)</f>
+        <f>IF(_speed_day_hour!N4="","",_speed_day_hour!N4)</f>
         <v/>
       </c>
       <c r="Q8" s="27" t="str">
-        <f>IF(_outCoke_day_hour!O4="","",_outCoke_day_hour!O4)</f>
+        <f>IF(_speed_day_hour!O4="","",_speed_day_hour!O4)</f>
         <v/>
       </c>
       <c r="R8" s="30" t="str">
-        <f>IF(_outCoke_day_hour!P4="","",_outCoke_day_hour!P4)</f>
+        <f>IF(_speed_day_hour!P4="","",_speed_day_hour!P4)</f>
         <v/>
       </c>
       <c r="S8" s="29" t="str">
-        <f>IF(_outCoke_day_hour!Q4="","",_outCoke_day_hour!Q4)</f>
+        <f>IF(_speed_day_hour!Q4="","",_speed_day_hour!Q4)</f>
         <v/>
       </c>
       <c r="T8" s="2"/>
@@ -4568,71 +4568,71 @@
         <v>0.125</v>
       </c>
       <c r="C9" s="26" t="str">
-        <f>IF(_outCoke_day_hour!A5="","",_outCoke_day_hour!A5)</f>
+        <f>IF(_speed_day_hour!A5="","",_speed_day_hour!A5)</f>
         <v/>
       </c>
       <c r="D9" s="26" t="str">
-        <f>IF(_outCoke_day_hour!B5="","",_outCoke_day_hour!B5)</f>
+        <f>IF(_speed_day_hour!B5="","",_speed_day_hour!B5)</f>
         <v/>
       </c>
       <c r="E9" s="26" t="str">
-        <f>IF(_outCoke_day_hour!C5="","",_outCoke_day_hour!C5)</f>
+        <f>IF(_speed_day_hour!C5="","",_speed_day_hour!C5)</f>
         <v/>
       </c>
       <c r="F9" s="26" t="str">
-        <f>IF(_outCoke_day_hour!D5="","",_outCoke_day_hour!D5)</f>
+        <f>IF(_speed_day_hour!D5="","",_speed_day_hour!D5)</f>
         <v/>
       </c>
       <c r="G9" s="26" t="str">
-        <f>IF(_outCoke_day_hour!E5="","",_outCoke_day_hour!E5)</f>
+        <f>IF(_speed_day_hour!E5="","",_speed_day_hour!E5)</f>
         <v/>
       </c>
       <c r="H9" s="26" t="str">
-        <f>IF(_outCoke_day_hour!F5="","",_outCoke_day_hour!F5)</f>
+        <f>IF(_speed_day_hour!F5="","",_speed_day_hour!F5)</f>
         <v/>
       </c>
       <c r="I9" s="26" t="str">
-        <f>IF(_outCoke_day_hour!G5="","",_outCoke_day_hour!G5)</f>
+        <f>IF(_speed_day_hour!G5="","",_speed_day_hour!G5)</f>
         <v/>
       </c>
       <c r="J9" s="27" t="str">
-        <f>IF(_outCoke_day_hour!H5="","",_outCoke_day_hour!H5)</f>
+        <f>IF(_speed_day_hour!H5="","",_speed_day_hour!H5)</f>
         <v/>
       </c>
       <c r="K9" s="26" t="str">
-        <f>IF(_outCoke_day_hour!I5="","",_outCoke_day_hour!I5)</f>
+        <f>IF(_speed_day_hour!I5="","",_speed_day_hour!I5)</f>
         <v/>
       </c>
       <c r="L9" s="26" t="str">
-        <f>IF(_outCoke_day_hour!J5="","",_outCoke_day_hour!J5)</f>
+        <f>IF(_speed_day_hour!J5="","",_speed_day_hour!J5)</f>
         <v/>
       </c>
       <c r="M9" s="27" t="str">
-        <f>IF(_outCoke_day_hour!K5="","",_outCoke_day_hour!K5)</f>
+        <f>IF(_speed_day_hour!K5="","",_speed_day_hour!K5)</f>
         <v/>
       </c>
       <c r="N9" s="27" t="str">
-        <f>IF(_outCoke_day_hour!L5="","",_outCoke_day_hour!L5)</f>
+        <f>IF(_speed_day_hour!L5="","",_speed_day_hour!L5)</f>
         <v/>
       </c>
       <c r="O9" s="27" t="str">
-        <f>IF(_outCoke_day_hour!M5="","",_outCoke_day_hour!M5)</f>
+        <f>IF(_speed_day_hour!M5="","",_speed_day_hour!M5)</f>
         <v/>
       </c>
       <c r="P9" s="27" t="str">
-        <f>IF(_outCoke_day_hour!N5="","",_outCoke_day_hour!N5)</f>
+        <f>IF(_speed_day_hour!N5="","",_speed_day_hour!N5)</f>
         <v/>
       </c>
       <c r="Q9" s="27" t="str">
-        <f>IF(_outCoke_day_hour!O5="","",_outCoke_day_hour!O5)</f>
+        <f>IF(_speed_day_hour!O5="","",_speed_day_hour!O5)</f>
         <v/>
       </c>
       <c r="R9" s="30" t="str">
-        <f>IF(_outCoke_day_hour!P5="","",_outCoke_day_hour!P5)</f>
+        <f>IF(_speed_day_hour!P5="","",_speed_day_hour!P5)</f>
         <v/>
       </c>
       <c r="S9" s="29" t="str">
-        <f>IF(_outCoke_day_hour!Q5="","",_outCoke_day_hour!Q5)</f>
+        <f>IF(_speed_day_hour!Q5="","",_speed_day_hour!Q5)</f>
         <v/>
       </c>
       <c r="T9" s="2"/>
@@ -4877,71 +4877,71 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="C10" s="26" t="str">
-        <f>IF(_outCoke_day_hour!A6="","",_outCoke_day_hour!A6)</f>
+        <f>IF(_speed_day_hour!A6="","",_speed_day_hour!A6)</f>
         <v/>
       </c>
       <c r="D10" s="26" t="str">
-        <f>IF(_outCoke_day_hour!B6="","",_outCoke_day_hour!B6)</f>
+        <f>IF(_speed_day_hour!B6="","",_speed_day_hour!B6)</f>
         <v/>
       </c>
       <c r="E10" s="26" t="str">
-        <f>IF(_outCoke_day_hour!C6="","",_outCoke_day_hour!C6)</f>
+        <f>IF(_speed_day_hour!C6="","",_speed_day_hour!C6)</f>
         <v/>
       </c>
       <c r="F10" s="26" t="str">
-        <f>IF(_outCoke_day_hour!D6="","",_outCoke_day_hour!D6)</f>
+        <f>IF(_speed_day_hour!D6="","",_speed_day_hour!D6)</f>
         <v/>
       </c>
       <c r="G10" s="26" t="str">
-        <f>IF(_outCoke_day_hour!E6="","",_outCoke_day_hour!E6)</f>
+        <f>IF(_speed_day_hour!E6="","",_speed_day_hour!E6)</f>
         <v/>
       </c>
       <c r="H10" s="26" t="str">
-        <f>IF(_outCoke_day_hour!F6="","",_outCoke_day_hour!F6)</f>
+        <f>IF(_speed_day_hour!F6="","",_speed_day_hour!F6)</f>
         <v/>
       </c>
       <c r="I10" s="26" t="str">
-        <f>IF(_outCoke_day_hour!G6="","",_outCoke_day_hour!G6)</f>
+        <f>IF(_speed_day_hour!G6="","",_speed_day_hour!G6)</f>
         <v/>
       </c>
       <c r="J10" s="27" t="str">
-        <f>IF(_outCoke_day_hour!H6="","",_outCoke_day_hour!H6)</f>
+        <f>IF(_speed_day_hour!H6="","",_speed_day_hour!H6)</f>
         <v/>
       </c>
       <c r="K10" s="26" t="str">
-        <f>IF(_outCoke_day_hour!I6="","",_outCoke_day_hour!I6)</f>
+        <f>IF(_speed_day_hour!I6="","",_speed_day_hour!I6)</f>
         <v/>
       </c>
       <c r="L10" s="26" t="str">
-        <f>IF(_outCoke_day_hour!J6="","",_outCoke_day_hour!J6)</f>
+        <f>IF(_speed_day_hour!J6="","",_speed_day_hour!J6)</f>
         <v/>
       </c>
       <c r="M10" s="27" t="str">
-        <f>IF(_outCoke_day_hour!K6="","",_outCoke_day_hour!K6)</f>
+        <f>IF(_speed_day_hour!K6="","",_speed_day_hour!K6)</f>
         <v/>
       </c>
       <c r="N10" s="27" t="str">
-        <f>IF(_outCoke_day_hour!L6="","",_outCoke_day_hour!L6)</f>
+        <f>IF(_speed_day_hour!L6="","",_speed_day_hour!L6)</f>
         <v/>
       </c>
       <c r="O10" s="27" t="str">
-        <f>IF(_outCoke_day_hour!M6="","",_outCoke_day_hour!M6)</f>
+        <f>IF(_speed_day_hour!M6="","",_speed_day_hour!M6)</f>
         <v/>
       </c>
       <c r="P10" s="27" t="str">
-        <f>IF(_outCoke_day_hour!N6="","",_outCoke_day_hour!N6)</f>
+        <f>IF(_speed_day_hour!N6="","",_speed_day_hour!N6)</f>
         <v/>
       </c>
       <c r="Q10" s="27" t="str">
-        <f>IF(_outCoke_day_hour!O6="","",_outCoke_day_hour!O6)</f>
+        <f>IF(_speed_day_hour!O6="","",_speed_day_hour!O6)</f>
         <v/>
       </c>
       <c r="R10" s="30" t="str">
-        <f>IF(_outCoke_day_hour!P6="","",_outCoke_day_hour!P6)</f>
+        <f>IF(_speed_day_hour!P6="","",_speed_day_hour!P6)</f>
         <v/>
       </c>
       <c r="S10" s="29" t="str">
-        <f>IF(_outCoke_day_hour!Q6="","",_outCoke_day_hour!Q6)</f>
+        <f>IF(_speed_day_hour!Q6="","",_speed_day_hour!Q6)</f>
         <v/>
       </c>
       <c r="T10" s="2"/>
@@ -5186,71 +5186,71 @@
         <v>0.20833333333333301</v>
       </c>
       <c r="C11" s="26" t="str">
-        <f>IF(_outCoke_day_hour!A7="","",_outCoke_day_hour!A7)</f>
+        <f>IF(_speed_day_hour!A7="","",_speed_day_hour!A7)</f>
         <v/>
       </c>
       <c r="D11" s="26" t="str">
-        <f>IF(_outCoke_day_hour!B7="","",_outCoke_day_hour!B7)</f>
+        <f>IF(_speed_day_hour!B7="","",_speed_day_hour!B7)</f>
         <v/>
       </c>
       <c r="E11" s="26" t="str">
-        <f>IF(_outCoke_day_hour!C7="","",_outCoke_day_hour!C7)</f>
+        <f>IF(_speed_day_hour!C7="","",_speed_day_hour!C7)</f>
         <v/>
       </c>
       <c r="F11" s="26" t="str">
-        <f>IF(_outCoke_day_hour!D7="","",_outCoke_day_hour!D7)</f>
+        <f>IF(_speed_day_hour!D7="","",_speed_day_hour!D7)</f>
         <v/>
       </c>
       <c r="G11" s="26" t="str">
-        <f>IF(_outCoke_day_hour!E7="","",_outCoke_day_hour!E7)</f>
+        <f>IF(_speed_day_hour!E7="","",_speed_day_hour!E7)</f>
         <v/>
       </c>
       <c r="H11" s="26" t="str">
-        <f>IF(_outCoke_day_hour!F7="","",_outCoke_day_hour!F7)</f>
+        <f>IF(_speed_day_hour!F7="","",_speed_day_hour!F7)</f>
         <v/>
       </c>
       <c r="I11" s="26" t="str">
-        <f>IF(_outCoke_day_hour!G7="","",_outCoke_day_hour!G7)</f>
+        <f>IF(_speed_day_hour!G7="","",_speed_day_hour!G7)</f>
         <v/>
       </c>
       <c r="J11" s="27" t="str">
-        <f>IF(_outCoke_day_hour!H7="","",_outCoke_day_hour!H7)</f>
+        <f>IF(_speed_day_hour!H7="","",_speed_day_hour!H7)</f>
         <v/>
       </c>
       <c r="K11" s="26" t="str">
-        <f>IF(_outCoke_day_hour!I7="","",_outCoke_day_hour!I7)</f>
+        <f>IF(_speed_day_hour!I7="","",_speed_day_hour!I7)</f>
         <v/>
       </c>
       <c r="L11" s="26" t="str">
-        <f>IF(_outCoke_day_hour!J7="","",_outCoke_day_hour!J7)</f>
+        <f>IF(_speed_day_hour!J7="","",_speed_day_hour!J7)</f>
         <v/>
       </c>
       <c r="M11" s="27" t="str">
-        <f>IF(_outCoke_day_hour!K7="","",_outCoke_day_hour!K7)</f>
+        <f>IF(_speed_day_hour!K7="","",_speed_day_hour!K7)</f>
         <v/>
       </c>
       <c r="N11" s="27" t="str">
-        <f>IF(_outCoke_day_hour!L7="","",_outCoke_day_hour!L7)</f>
+        <f>IF(_speed_day_hour!L7="","",_speed_day_hour!L7)</f>
         <v/>
       </c>
       <c r="O11" s="27" t="str">
-        <f>IF(_outCoke_day_hour!M7="","",_outCoke_day_hour!M7)</f>
+        <f>IF(_speed_day_hour!M7="","",_speed_day_hour!M7)</f>
         <v/>
       </c>
       <c r="P11" s="27" t="str">
-        <f>IF(_outCoke_day_hour!N7="","",_outCoke_day_hour!N7)</f>
+        <f>IF(_speed_day_hour!N7="","",_speed_day_hour!N7)</f>
         <v/>
       </c>
       <c r="Q11" s="27" t="str">
-        <f>IF(_outCoke_day_hour!O7="","",_outCoke_day_hour!O7)</f>
+        <f>IF(_speed_day_hour!O7="","",_speed_day_hour!O7)</f>
         <v/>
       </c>
       <c r="R11" s="30" t="str">
-        <f>IF(_outCoke_day_hour!P7="","",_outCoke_day_hour!P7)</f>
+        <f>IF(_speed_day_hour!P7="","",_speed_day_hour!P7)</f>
         <v/>
       </c>
       <c r="S11" s="29" t="str">
-        <f>IF(_outCoke_day_hour!Q7="","",_outCoke_day_hour!Q7)</f>
+        <f>IF(_speed_day_hour!Q7="","",_speed_day_hour!Q7)</f>
         <v/>
       </c>
       <c r="T11" s="2"/>
@@ -5495,71 +5495,71 @@
         <v>0.25</v>
       </c>
       <c r="C12" s="26" t="str">
-        <f>IF(_outCoke_day_hour!A8="","",_outCoke_day_hour!A8)</f>
+        <f>IF(_speed_day_hour!A8="","",_speed_day_hour!A8)</f>
         <v/>
       </c>
       <c r="D12" s="26" t="str">
-        <f>IF(_outCoke_day_hour!B8="","",_outCoke_day_hour!B8)</f>
+        <f>IF(_speed_day_hour!B8="","",_speed_day_hour!B8)</f>
         <v/>
       </c>
       <c r="E12" s="26" t="str">
-        <f>IF(_outCoke_day_hour!C8="","",_outCoke_day_hour!C8)</f>
+        <f>IF(_speed_day_hour!C8="","",_speed_day_hour!C8)</f>
         <v/>
       </c>
       <c r="F12" s="26" t="str">
-        <f>IF(_outCoke_day_hour!D8="","",_outCoke_day_hour!D8)</f>
+        <f>IF(_speed_day_hour!D8="","",_speed_day_hour!D8)</f>
         <v/>
       </c>
       <c r="G12" s="26" t="str">
-        <f>IF(_outCoke_day_hour!E8="","",_outCoke_day_hour!E8)</f>
+        <f>IF(_speed_day_hour!E8="","",_speed_day_hour!E8)</f>
         <v/>
       </c>
       <c r="H12" s="26" t="str">
-        <f>IF(_outCoke_day_hour!F8="","",_outCoke_day_hour!F8)</f>
+        <f>IF(_speed_day_hour!F8="","",_speed_day_hour!F8)</f>
         <v/>
       </c>
       <c r="I12" s="26" t="str">
-        <f>IF(_outCoke_day_hour!G8="","",_outCoke_day_hour!G8)</f>
+        <f>IF(_speed_day_hour!G8="","",_speed_day_hour!G8)</f>
         <v/>
       </c>
       <c r="J12" s="27" t="str">
-        <f>IF(_outCoke_day_hour!H8="","",_outCoke_day_hour!H8)</f>
+        <f>IF(_speed_day_hour!H8="","",_speed_day_hour!H8)</f>
         <v/>
       </c>
       <c r="K12" s="26" t="str">
-        <f>IF(_outCoke_day_hour!I8="","",_outCoke_day_hour!I8)</f>
+        <f>IF(_speed_day_hour!I8="","",_speed_day_hour!I8)</f>
         <v/>
       </c>
       <c r="L12" s="26" t="str">
-        <f>IF(_outCoke_day_hour!J8="","",_outCoke_day_hour!J8)</f>
+        <f>IF(_speed_day_hour!J8="","",_speed_day_hour!J8)</f>
         <v/>
       </c>
       <c r="M12" s="27" t="str">
-        <f>IF(_outCoke_day_hour!K8="","",_outCoke_day_hour!K8)</f>
+        <f>IF(_speed_day_hour!K8="","",_speed_day_hour!K8)</f>
         <v/>
       </c>
       <c r="N12" s="27" t="str">
-        <f>IF(_outCoke_day_hour!L8="","",_outCoke_day_hour!L8)</f>
+        <f>IF(_speed_day_hour!L8="","",_speed_day_hour!L8)</f>
         <v/>
       </c>
       <c r="O12" s="27" t="str">
-        <f>IF(_outCoke_day_hour!M8="","",_outCoke_day_hour!M8)</f>
+        <f>IF(_speed_day_hour!M8="","",_speed_day_hour!M8)</f>
         <v/>
       </c>
       <c r="P12" s="27" t="str">
-        <f>IF(_outCoke_day_hour!N8="","",_outCoke_day_hour!N8)</f>
+        <f>IF(_speed_day_hour!N8="","",_speed_day_hour!N8)</f>
         <v/>
       </c>
       <c r="Q12" s="27" t="str">
-        <f>IF(_outCoke_day_hour!O8="","",_outCoke_day_hour!O8)</f>
+        <f>IF(_speed_day_hour!O8="","",_speed_day_hour!O8)</f>
         <v/>
       </c>
       <c r="R12" s="30" t="str">
-        <f>IF(_outCoke_day_hour!P8="","",_outCoke_day_hour!P8)</f>
+        <f>IF(_speed_day_hour!P8="","",_speed_day_hour!P8)</f>
         <v/>
       </c>
       <c r="S12" s="29" t="str">
-        <f>IF(_outCoke_day_hour!Q8="","",_outCoke_day_hour!Q8)</f>
+        <f>IF(_speed_day_hour!Q8="","",_speed_day_hour!Q8)</f>
         <v/>
       </c>
       <c r="T12" s="2"/>
@@ -5804,71 +5804,71 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="C13" s="26" t="str">
-        <f>IF(_outCoke_day_hour!A9="","",_outCoke_day_hour!A9)</f>
+        <f>IF(_speed_day_hour!A9="","",_speed_day_hour!A9)</f>
         <v/>
       </c>
       <c r="D13" s="26" t="str">
-        <f>IF(_outCoke_day_hour!B9="","",_outCoke_day_hour!B9)</f>
+        <f>IF(_speed_day_hour!B9="","",_speed_day_hour!B9)</f>
         <v/>
       </c>
       <c r="E13" s="26" t="str">
-        <f>IF(_outCoke_day_hour!C9="","",_outCoke_day_hour!C9)</f>
+        <f>IF(_speed_day_hour!C9="","",_speed_day_hour!C9)</f>
         <v/>
       </c>
       <c r="F13" s="26" t="str">
-        <f>IF(_outCoke_day_hour!D9="","",_outCoke_day_hour!D9)</f>
+        <f>IF(_speed_day_hour!D9="","",_speed_day_hour!D9)</f>
         <v/>
       </c>
       <c r="G13" s="26" t="str">
-        <f>IF(_outCoke_day_hour!E9="","",_outCoke_day_hour!E9)</f>
+        <f>IF(_speed_day_hour!E9="","",_speed_day_hour!E9)</f>
         <v/>
       </c>
       <c r="H13" s="26" t="str">
-        <f>IF(_outCoke_day_hour!F9="","",_outCoke_day_hour!F9)</f>
+        <f>IF(_speed_day_hour!F9="","",_speed_day_hour!F9)</f>
         <v/>
       </c>
       <c r="I13" s="26" t="str">
-        <f>IF(_outCoke_day_hour!G9="","",_outCoke_day_hour!G9)</f>
+        <f>IF(_speed_day_hour!G9="","",_speed_day_hour!G9)</f>
         <v/>
       </c>
       <c r="J13" s="27" t="str">
-        <f>IF(_outCoke_day_hour!H9="","",_outCoke_day_hour!H9)</f>
+        <f>IF(_speed_day_hour!H9="","",_speed_day_hour!H9)</f>
         <v/>
       </c>
       <c r="K13" s="26" t="str">
-        <f>IF(_outCoke_day_hour!I9="","",_outCoke_day_hour!I9)</f>
+        <f>IF(_speed_day_hour!I9="","",_speed_day_hour!I9)</f>
         <v/>
       </c>
       <c r="L13" s="26" t="str">
-        <f>IF(_outCoke_day_hour!J9="","",_outCoke_day_hour!J9)</f>
+        <f>IF(_speed_day_hour!J9="","",_speed_day_hour!J9)</f>
         <v/>
       </c>
       <c r="M13" s="27" t="str">
-        <f>IF(_outCoke_day_hour!K9="","",_outCoke_day_hour!K9)</f>
+        <f>IF(_speed_day_hour!K9="","",_speed_day_hour!K9)</f>
         <v/>
       </c>
       <c r="N13" s="27" t="str">
-        <f>IF(_outCoke_day_hour!L9="","",_outCoke_day_hour!L9)</f>
+        <f>IF(_speed_day_hour!L9="","",_speed_day_hour!L9)</f>
         <v/>
       </c>
       <c r="O13" s="27" t="str">
-        <f>IF(_outCoke_day_hour!M9="","",_outCoke_day_hour!M9)</f>
+        <f>IF(_speed_day_hour!M9="","",_speed_day_hour!M9)</f>
         <v/>
       </c>
       <c r="P13" s="27" t="str">
-        <f>IF(_outCoke_day_hour!N9="","",_outCoke_day_hour!N9)</f>
+        <f>IF(_speed_day_hour!N9="","",_speed_day_hour!N9)</f>
         <v/>
       </c>
       <c r="Q13" s="27" t="str">
-        <f>IF(_outCoke_day_hour!O9="","",_outCoke_day_hour!O9)</f>
+        <f>IF(_speed_day_hour!O9="","",_speed_day_hour!O9)</f>
         <v/>
       </c>
       <c r="R13" s="30" t="str">
-        <f>IF(_outCoke_day_hour!P9="","",_outCoke_day_hour!P9)</f>
+        <f>IF(_speed_day_hour!P9="","",_speed_day_hour!P9)</f>
         <v/>
       </c>
       <c r="S13" s="29" t="str">
-        <f>IF(_outCoke_day_hour!Q9="","",_outCoke_day_hour!Q9)</f>
+        <f>IF(_speed_day_hour!Q9="","",_speed_day_hour!Q9)</f>
         <v/>
       </c>
       <c r="T13" s="2"/>
@@ -6113,71 +6113,71 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="C14" s="26" t="str">
-        <f>IF(_outCoke_day_hour!A10="","",_outCoke_day_hour!A10)</f>
+        <f>IF(_speed_day_hour!A10="","",_speed_day_hour!A10)</f>
         <v/>
       </c>
       <c r="D14" s="26" t="str">
-        <f>IF(_outCoke_day_hour!B10="","",_outCoke_day_hour!B10)</f>
+        <f>IF(_speed_day_hour!B10="","",_speed_day_hour!B10)</f>
         <v/>
       </c>
       <c r="E14" s="26" t="str">
-        <f>IF(_outCoke_day_hour!C10="","",_outCoke_day_hour!C10)</f>
+        <f>IF(_speed_day_hour!C10="","",_speed_day_hour!C10)</f>
         <v/>
       </c>
       <c r="F14" s="26" t="str">
-        <f>IF(_outCoke_day_hour!D10="","",_outCoke_day_hour!D10)</f>
+        <f>IF(_speed_day_hour!D10="","",_speed_day_hour!D10)</f>
         <v/>
       </c>
       <c r="G14" s="26" t="str">
-        <f>IF(_outCoke_day_hour!E10="","",_outCoke_day_hour!E10)</f>
+        <f>IF(_speed_day_hour!E10="","",_speed_day_hour!E10)</f>
         <v/>
       </c>
       <c r="H14" s="26" t="str">
-        <f>IF(_outCoke_day_hour!F10="","",_outCoke_day_hour!F10)</f>
+        <f>IF(_speed_day_hour!F10="","",_speed_day_hour!F10)</f>
         <v/>
       </c>
       <c r="I14" s="26" t="str">
-        <f>IF(_outCoke_day_hour!G10="","",_outCoke_day_hour!G10)</f>
+        <f>IF(_speed_day_hour!G10="","",_speed_day_hour!G10)</f>
         <v/>
       </c>
       <c r="J14" s="27" t="str">
-        <f>IF(_outCoke_day_hour!H10="","",_outCoke_day_hour!H10)</f>
+        <f>IF(_speed_day_hour!H10="","",_speed_day_hour!H10)</f>
         <v/>
       </c>
       <c r="K14" s="26" t="str">
-        <f>IF(_outCoke_day_hour!I10="","",_outCoke_day_hour!I10)</f>
+        <f>IF(_speed_day_hour!I10="","",_speed_day_hour!I10)</f>
         <v/>
       </c>
       <c r="L14" s="26" t="str">
-        <f>IF(_outCoke_day_hour!J10="","",_outCoke_day_hour!J10)</f>
+        <f>IF(_speed_day_hour!J10="","",_speed_day_hour!J10)</f>
         <v/>
       </c>
       <c r="M14" s="27" t="str">
-        <f>IF(_outCoke_day_hour!K10="","",_outCoke_day_hour!K10)</f>
+        <f>IF(_speed_day_hour!K10="","",_speed_day_hour!K10)</f>
         <v/>
       </c>
       <c r="N14" s="27" t="str">
-        <f>IF(_outCoke_day_hour!L10="","",_outCoke_day_hour!L10)</f>
+        <f>IF(_speed_day_hour!L10="","",_speed_day_hour!L10)</f>
         <v/>
       </c>
       <c r="O14" s="27" t="str">
-        <f>IF(_outCoke_day_hour!M10="","",_outCoke_day_hour!M10)</f>
+        <f>IF(_speed_day_hour!M10="","",_speed_day_hour!M10)</f>
         <v/>
       </c>
       <c r="P14" s="27" t="str">
-        <f>IF(_outCoke_day_hour!N10="","",_outCoke_day_hour!N10)</f>
+        <f>IF(_speed_day_hour!N10="","",_speed_day_hour!N10)</f>
         <v/>
       </c>
       <c r="Q14" s="27" t="str">
-        <f>IF(_outCoke_day_hour!O10="","",_outCoke_day_hour!O10)</f>
+        <f>IF(_speed_day_hour!O10="","",_speed_day_hour!O10)</f>
         <v/>
       </c>
       <c r="R14" s="30" t="str">
-        <f>IF(_outCoke_day_hour!P10="","",_outCoke_day_hour!P10)</f>
+        <f>IF(_speed_day_hour!P10="","",_speed_day_hour!P10)</f>
         <v/>
       </c>
       <c r="S14" s="29" t="str">
-        <f>IF(_outCoke_day_hour!Q10="","",_outCoke_day_hour!Q10)</f>
+        <f>IF(_speed_day_hour!Q10="","",_speed_day_hour!Q10)</f>
         <v/>
       </c>
       <c r="T14" s="2"/>
@@ -6422,71 +6422,71 @@
         <v>0.375</v>
       </c>
       <c r="C15" s="26" t="str">
-        <f>IF(_outCoke_day_hour!A11="","",_outCoke_day_hour!A11)</f>
+        <f>IF(_speed_day_hour!A11="","",_speed_day_hour!A11)</f>
         <v/>
       </c>
       <c r="D15" s="26" t="str">
-        <f>IF(_outCoke_day_hour!B11="","",_outCoke_day_hour!B11)</f>
+        <f>IF(_speed_day_hour!B11="","",_speed_day_hour!B11)</f>
         <v/>
       </c>
       <c r="E15" s="26" t="str">
-        <f>IF(_outCoke_day_hour!C11="","",_outCoke_day_hour!C11)</f>
+        <f>IF(_speed_day_hour!C11="","",_speed_day_hour!C11)</f>
         <v/>
       </c>
       <c r="F15" s="26" t="str">
-        <f>IF(_outCoke_day_hour!D11="","",_outCoke_day_hour!D11)</f>
+        <f>IF(_speed_day_hour!D11="","",_speed_day_hour!D11)</f>
         <v/>
       </c>
       <c r="G15" s="26" t="str">
-        <f>IF(_outCoke_day_hour!E11="","",_outCoke_day_hour!E11)</f>
+        <f>IF(_speed_day_hour!E11="","",_speed_day_hour!E11)</f>
         <v/>
       </c>
       <c r="H15" s="26" t="str">
-        <f>IF(_outCoke_day_hour!F11="","",_outCoke_day_hour!F11)</f>
+        <f>IF(_speed_day_hour!F11="","",_speed_day_hour!F11)</f>
         <v/>
       </c>
       <c r="I15" s="26" t="str">
-        <f>IF(_outCoke_day_hour!G11="","",_outCoke_day_hour!G11)</f>
+        <f>IF(_speed_day_hour!G11="","",_speed_day_hour!G11)</f>
         <v/>
       </c>
       <c r="J15" s="27" t="str">
-        <f>IF(_outCoke_day_hour!H11="","",_outCoke_day_hour!H11)</f>
+        <f>IF(_speed_day_hour!H11="","",_speed_day_hour!H11)</f>
         <v/>
       </c>
       <c r="K15" s="26" t="str">
-        <f>IF(_outCoke_day_hour!I11="","",_outCoke_day_hour!I11)</f>
+        <f>IF(_speed_day_hour!I11="","",_speed_day_hour!I11)</f>
         <v/>
       </c>
       <c r="L15" s="26" t="str">
-        <f>IF(_outCoke_day_hour!J11="","",_outCoke_day_hour!J11)</f>
+        <f>IF(_speed_day_hour!J11="","",_speed_day_hour!J11)</f>
         <v/>
       </c>
       <c r="M15" s="27" t="str">
-        <f>IF(_outCoke_day_hour!K11="","",_outCoke_day_hour!K11)</f>
+        <f>IF(_speed_day_hour!K11="","",_speed_day_hour!K11)</f>
         <v/>
       </c>
       <c r="N15" s="27" t="str">
-        <f>IF(_outCoke_day_hour!L11="","",_outCoke_day_hour!L11)</f>
+        <f>IF(_speed_day_hour!L11="","",_speed_day_hour!L11)</f>
         <v/>
       </c>
       <c r="O15" s="27" t="str">
-        <f>IF(_outCoke_day_hour!M11="","",_outCoke_day_hour!M11)</f>
+        <f>IF(_speed_day_hour!M11="","",_speed_day_hour!M11)</f>
         <v/>
       </c>
       <c r="P15" s="27" t="str">
-        <f>IF(_outCoke_day_hour!N11="","",_outCoke_day_hour!N11)</f>
+        <f>IF(_speed_day_hour!N11="","",_speed_day_hour!N11)</f>
         <v/>
       </c>
       <c r="Q15" s="27" t="str">
-        <f>IF(_outCoke_day_hour!O11="","",_outCoke_day_hour!O11)</f>
+        <f>IF(_speed_day_hour!O11="","",_speed_day_hour!O11)</f>
         <v/>
       </c>
       <c r="R15" s="30" t="str">
-        <f>IF(_outCoke_day_hour!P11="","",_outCoke_day_hour!P11)</f>
+        <f>IF(_speed_day_hour!P11="","",_speed_day_hour!P11)</f>
         <v/>
       </c>
       <c r="S15" s="29" t="str">
-        <f>IF(_outCoke_day_hour!Q11="","",_outCoke_day_hour!Q11)</f>
+        <f>IF(_speed_day_hour!Q11="","",_speed_day_hour!Q11)</f>
         <v/>
       </c>
       <c r="T15" s="2"/>
@@ -6731,71 +6731,71 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="C16" s="26" t="str">
-        <f>IF(_outCoke_day_hour!A12="","",_outCoke_day_hour!A12)</f>
+        <f>IF(_speed_day_hour!A12="","",_speed_day_hour!A12)</f>
         <v/>
       </c>
       <c r="D16" s="26" t="str">
-        <f>IF(_outCoke_day_hour!B12="","",_outCoke_day_hour!B12)</f>
+        <f>IF(_speed_day_hour!B12="","",_speed_day_hour!B12)</f>
         <v/>
       </c>
       <c r="E16" s="26" t="str">
-        <f>IF(_outCoke_day_hour!C12="","",_outCoke_day_hour!C12)</f>
+        <f>IF(_speed_day_hour!C12="","",_speed_day_hour!C12)</f>
         <v/>
       </c>
       <c r="F16" s="26" t="str">
-        <f>IF(_outCoke_day_hour!D12="","",_outCoke_day_hour!D12)</f>
+        <f>IF(_speed_day_hour!D12="","",_speed_day_hour!D12)</f>
         <v/>
       </c>
       <c r="G16" s="26" t="str">
-        <f>IF(_outCoke_day_hour!E12="","",_outCoke_day_hour!E12)</f>
+        <f>IF(_speed_day_hour!E12="","",_speed_day_hour!E12)</f>
         <v/>
       </c>
       <c r="H16" s="26" t="str">
-        <f>IF(_outCoke_day_hour!F12="","",_outCoke_day_hour!F12)</f>
+        <f>IF(_speed_day_hour!F12="","",_speed_day_hour!F12)</f>
         <v/>
       </c>
       <c r="I16" s="26" t="str">
-        <f>IF(_outCoke_day_hour!G12="","",_outCoke_day_hour!G12)</f>
+        <f>IF(_speed_day_hour!G12="","",_speed_day_hour!G12)</f>
         <v/>
       </c>
       <c r="J16" s="27" t="str">
-        <f>IF(_outCoke_day_hour!H12="","",_outCoke_day_hour!H12)</f>
+        <f>IF(_speed_day_hour!H12="","",_speed_day_hour!H12)</f>
         <v/>
       </c>
       <c r="K16" s="26" t="str">
-        <f>IF(_outCoke_day_hour!I12="","",_outCoke_day_hour!I12)</f>
+        <f>IF(_speed_day_hour!I12="","",_speed_day_hour!I12)</f>
         <v/>
       </c>
       <c r="L16" s="26" t="str">
-        <f>IF(_outCoke_day_hour!J12="","",_outCoke_day_hour!J12)</f>
+        <f>IF(_speed_day_hour!J12="","",_speed_day_hour!J12)</f>
         <v/>
       </c>
       <c r="M16" s="27" t="str">
-        <f>IF(_outCoke_day_hour!K12="","",_outCoke_day_hour!K12)</f>
+        <f>IF(_speed_day_hour!K12="","",_speed_day_hour!K12)</f>
         <v/>
       </c>
       <c r="N16" s="27" t="str">
-        <f>IF(_outCoke_day_hour!L12="","",_outCoke_day_hour!L12)</f>
+        <f>IF(_speed_day_hour!L12="","",_speed_day_hour!L12)</f>
         <v/>
       </c>
       <c r="O16" s="27" t="str">
-        <f>IF(_outCoke_day_hour!M12="","",_outCoke_day_hour!M12)</f>
+        <f>IF(_speed_day_hour!M12="","",_speed_day_hour!M12)</f>
         <v/>
       </c>
       <c r="P16" s="27" t="str">
-        <f>IF(_outCoke_day_hour!N12="","",_outCoke_day_hour!N12)</f>
+        <f>IF(_speed_day_hour!N12="","",_speed_day_hour!N12)</f>
         <v/>
       </c>
       <c r="Q16" s="27" t="str">
-        <f>IF(_outCoke_day_hour!O12="","",_outCoke_day_hour!O12)</f>
+        <f>IF(_speed_day_hour!O12="","",_speed_day_hour!O12)</f>
         <v/>
       </c>
       <c r="R16" s="30" t="str">
-        <f>IF(_outCoke_day_hour!P12="","",_outCoke_day_hour!P12)</f>
+        <f>IF(_speed_day_hour!P12="","",_speed_day_hour!P12)</f>
         <v/>
       </c>
       <c r="S16" s="29" t="str">
-        <f>IF(_outCoke_day_hour!Q12="","",_outCoke_day_hour!Q12)</f>
+        <f>IF(_speed_day_hour!Q12="","",_speed_day_hour!Q12)</f>
         <v/>
       </c>
       <c r="T16" s="2"/>
@@ -7040,71 +7040,71 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="C17" s="26" t="str">
-        <f>IF(_outCoke_day_hour!A13="","",_outCoke_day_hour!A13)</f>
+        <f>IF(_speed_day_hour!A13="","",_speed_day_hour!A13)</f>
         <v/>
       </c>
       <c r="D17" s="26" t="str">
-        <f>IF(_outCoke_day_hour!B13="","",_outCoke_day_hour!B13)</f>
+        <f>IF(_speed_day_hour!B13="","",_speed_day_hour!B13)</f>
         <v/>
       </c>
       <c r="E17" s="26" t="str">
-        <f>IF(_outCoke_day_hour!C13="","",_outCoke_day_hour!C13)</f>
+        <f>IF(_speed_day_hour!C13="","",_speed_day_hour!C13)</f>
         <v/>
       </c>
       <c r="F17" s="26" t="str">
-        <f>IF(_outCoke_day_hour!D13="","",_outCoke_day_hour!D13)</f>
+        <f>IF(_speed_day_hour!D13="","",_speed_day_hour!D13)</f>
         <v/>
       </c>
       <c r="G17" s="26" t="str">
-        <f>IF(_outCoke_day_hour!E13="","",_outCoke_day_hour!E13)</f>
+        <f>IF(_speed_day_hour!E13="","",_speed_day_hour!E13)</f>
         <v/>
       </c>
       <c r="H17" s="26" t="str">
-        <f>IF(_outCoke_day_hour!F13="","",_outCoke_day_hour!F13)</f>
+        <f>IF(_speed_day_hour!F13="","",_speed_day_hour!F13)</f>
         <v/>
       </c>
       <c r="I17" s="26" t="str">
-        <f>IF(_outCoke_day_hour!G13="","",_outCoke_day_hour!G13)</f>
+        <f>IF(_speed_day_hour!G13="","",_speed_day_hour!G13)</f>
         <v/>
       </c>
       <c r="J17" s="27" t="str">
-        <f>IF(_outCoke_day_hour!H13="","",_outCoke_day_hour!H13)</f>
+        <f>IF(_speed_day_hour!H13="","",_speed_day_hour!H13)</f>
         <v/>
       </c>
       <c r="K17" s="26" t="str">
-        <f>IF(_outCoke_day_hour!I13="","",_outCoke_day_hour!I13)</f>
+        <f>IF(_speed_day_hour!I13="","",_speed_day_hour!I13)</f>
         <v/>
       </c>
       <c r="L17" s="26" t="str">
-        <f>IF(_outCoke_day_hour!J13="","",_outCoke_day_hour!J13)</f>
+        <f>IF(_speed_day_hour!J13="","",_speed_day_hour!J13)</f>
         <v/>
       </c>
       <c r="M17" s="27" t="str">
-        <f>IF(_outCoke_day_hour!K13="","",_outCoke_day_hour!K13)</f>
+        <f>IF(_speed_day_hour!K13="","",_speed_day_hour!K13)</f>
         <v/>
       </c>
       <c r="N17" s="27" t="str">
-        <f>IF(_outCoke_day_hour!L13="","",_outCoke_day_hour!L13)</f>
+        <f>IF(_speed_day_hour!L13="","",_speed_day_hour!L13)</f>
         <v/>
       </c>
       <c r="O17" s="27" t="str">
-        <f>IF(_outCoke_day_hour!M13="","",_outCoke_day_hour!M13)</f>
+        <f>IF(_speed_day_hour!M13="","",_speed_day_hour!M13)</f>
         <v/>
       </c>
       <c r="P17" s="27" t="str">
-        <f>IF(_outCoke_day_hour!N13="","",_outCoke_day_hour!N13)</f>
+        <f>IF(_speed_day_hour!N13="","",_speed_day_hour!N13)</f>
         <v/>
       </c>
       <c r="Q17" s="27" t="str">
-        <f>IF(_outCoke_day_hour!O13="","",_outCoke_day_hour!O13)</f>
+        <f>IF(_speed_day_hour!O13="","",_speed_day_hour!O13)</f>
         <v/>
       </c>
       <c r="R17" s="30" t="str">
-        <f>IF(_outCoke_day_hour!P13="","",_outCoke_day_hour!P13)</f>
+        <f>IF(_speed_day_hour!P13="","",_speed_day_hour!P13)</f>
         <v/>
       </c>
       <c r="S17" s="29" t="str">
-        <f>IF(_outCoke_day_hour!Q13="","",_outCoke_day_hour!Q13)</f>
+        <f>IF(_speed_day_hour!Q13="","",_speed_day_hour!Q13)</f>
         <v/>
       </c>
       <c r="T17" s="2"/>
@@ -7349,71 +7349,71 @@
         <v>0.5</v>
       </c>
       <c r="C18" s="31" t="str">
-        <f>IF(_outCoke_day_hour!A14="","",_outCoke_day_hour!A14)</f>
+        <f>IF(_speed_day_hour!A14="","",_speed_day_hour!A14)</f>
         <v/>
       </c>
       <c r="D18" s="31" t="str">
-        <f>IF(_outCoke_day_hour!B14="","",_outCoke_day_hour!B14)</f>
+        <f>IF(_speed_day_hour!B14="","",_speed_day_hour!B14)</f>
         <v/>
       </c>
       <c r="E18" s="31" t="str">
-        <f>IF(_outCoke_day_hour!C14="","",_outCoke_day_hour!C14)</f>
+        <f>IF(_speed_day_hour!C14="","",_speed_day_hour!C14)</f>
         <v/>
       </c>
       <c r="F18" s="31" t="str">
-        <f>IF(_outCoke_day_hour!D14="","",_outCoke_day_hour!D14)</f>
+        <f>IF(_speed_day_hour!D14="","",_speed_day_hour!D14)</f>
         <v/>
       </c>
       <c r="G18" s="31" t="str">
-        <f>IF(_outCoke_day_hour!E14="","",_outCoke_day_hour!E14)</f>
+        <f>IF(_speed_day_hour!E14="","",_speed_day_hour!E14)</f>
         <v/>
       </c>
       <c r="H18" s="31" t="str">
-        <f>IF(_outCoke_day_hour!F14="","",_outCoke_day_hour!F14)</f>
+        <f>IF(_speed_day_hour!F14="","",_speed_day_hour!F14)</f>
         <v/>
       </c>
       <c r="I18" s="31" t="str">
-        <f>IF(_outCoke_day_hour!G14="","",_outCoke_day_hour!G14)</f>
+        <f>IF(_speed_day_hour!G14="","",_speed_day_hour!G14)</f>
         <v/>
       </c>
       <c r="J18" s="32" t="str">
-        <f>IF(_outCoke_day_hour!H14="","",_outCoke_day_hour!H14)</f>
+        <f>IF(_speed_day_hour!H14="","",_speed_day_hour!H14)</f>
         <v/>
       </c>
       <c r="K18" s="31" t="str">
-        <f>IF(_outCoke_day_hour!I14="","",_outCoke_day_hour!I14)</f>
+        <f>IF(_speed_day_hour!I14="","",_speed_day_hour!I14)</f>
         <v/>
       </c>
       <c r="L18" s="31" t="str">
-        <f>IF(_outCoke_day_hour!J14="","",_outCoke_day_hour!J14)</f>
+        <f>IF(_speed_day_hour!J14="","",_speed_day_hour!J14)</f>
         <v/>
       </c>
       <c r="M18" s="32" t="str">
-        <f>IF(_outCoke_day_hour!K14="","",_outCoke_day_hour!K14)</f>
+        <f>IF(_speed_day_hour!K14="","",_speed_day_hour!K14)</f>
         <v/>
       </c>
       <c r="N18" s="32" t="str">
-        <f>IF(_outCoke_day_hour!L14="","",_outCoke_day_hour!L14)</f>
+        <f>IF(_speed_day_hour!L14="","",_speed_day_hour!L14)</f>
         <v/>
       </c>
       <c r="O18" s="32" t="str">
-        <f>IF(_outCoke_day_hour!M14="","",_outCoke_day_hour!M14)</f>
+        <f>IF(_speed_day_hour!M14="","",_speed_day_hour!M14)</f>
         <v/>
       </c>
       <c r="P18" s="33" t="str">
-        <f>IF(_outCoke_day_hour!N14="","",_outCoke_day_hour!N14)</f>
+        <f>IF(_speed_day_hour!N14="","",_speed_day_hour!N14)</f>
         <v/>
       </c>
       <c r="Q18" s="33" t="str">
-        <f>IF(_outCoke_day_hour!O14="","",_outCoke_day_hour!O14)</f>
+        <f>IF(_speed_day_hour!O14="","",_speed_day_hour!O14)</f>
         <v/>
       </c>
       <c r="R18" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P14="","",_outCoke_day_hour!P14)</f>
+        <f>IF(_speed_day_hour!P14="","",_speed_day_hour!P14)</f>
         <v/>
       </c>
       <c r="S18" s="34" t="str">
-        <f>IF(_outCoke_day_hour!Q14="","",_outCoke_day_hour!Q14)</f>
+        <f>IF(_speed_day_hour!Q14="","",_speed_day_hour!Q14)</f>
         <v/>
       </c>
       <c r="T18" s="2"/>
@@ -7658,71 +7658,71 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="C19" s="31" t="str">
-        <f>IF(_outCoke_day_hour!A15="","",_outCoke_day_hour!A15)</f>
+        <f>IF(_speed_day_hour!A15="","",_speed_day_hour!A15)</f>
         <v/>
       </c>
       <c r="D19" s="31" t="str">
-        <f>IF(_outCoke_day_hour!B15="","",_outCoke_day_hour!B15)</f>
+        <f>IF(_speed_day_hour!B15="","",_speed_day_hour!B15)</f>
         <v/>
       </c>
       <c r="E19" s="31" t="str">
-        <f>IF(_outCoke_day_hour!C15="","",_outCoke_day_hour!C15)</f>
+        <f>IF(_speed_day_hour!C15="","",_speed_day_hour!C15)</f>
         <v/>
       </c>
       <c r="F19" s="31" t="str">
-        <f>IF(_outCoke_day_hour!D15="","",_outCoke_day_hour!D15)</f>
+        <f>IF(_speed_day_hour!D15="","",_speed_day_hour!D15)</f>
         <v/>
       </c>
       <c r="G19" s="31" t="str">
-        <f>IF(_outCoke_day_hour!E15="","",_outCoke_day_hour!E15)</f>
+        <f>IF(_speed_day_hour!E15="","",_speed_day_hour!E15)</f>
         <v/>
       </c>
       <c r="H19" s="31" t="str">
-        <f>IF(_outCoke_day_hour!F15="","",_outCoke_day_hour!F15)</f>
+        <f>IF(_speed_day_hour!F15="","",_speed_day_hour!F15)</f>
         <v/>
       </c>
       <c r="I19" s="31" t="str">
-        <f>IF(_outCoke_day_hour!G15="","",_outCoke_day_hour!G15)</f>
+        <f>IF(_speed_day_hour!G15="","",_speed_day_hour!G15)</f>
         <v/>
       </c>
       <c r="J19" s="32" t="str">
-        <f>IF(_outCoke_day_hour!H15="","",_outCoke_day_hour!H15)</f>
+        <f>IF(_speed_day_hour!H15="","",_speed_day_hour!H15)</f>
         <v/>
       </c>
       <c r="K19" s="31" t="str">
-        <f>IF(_outCoke_day_hour!I15="","",_outCoke_day_hour!I15)</f>
+        <f>IF(_speed_day_hour!I15="","",_speed_day_hour!I15)</f>
         <v/>
       </c>
       <c r="L19" s="31" t="str">
-        <f>IF(_outCoke_day_hour!J15="","",_outCoke_day_hour!J15)</f>
+        <f>IF(_speed_day_hour!J15="","",_speed_day_hour!J15)</f>
         <v/>
       </c>
       <c r="M19" s="32" t="str">
-        <f>IF(_outCoke_day_hour!K15="","",_outCoke_day_hour!K15)</f>
+        <f>IF(_speed_day_hour!K15="","",_speed_day_hour!K15)</f>
         <v/>
       </c>
       <c r="N19" s="32" t="str">
-        <f>IF(_outCoke_day_hour!L15="","",_outCoke_day_hour!L15)</f>
+        <f>IF(_speed_day_hour!L15="","",_speed_day_hour!L15)</f>
         <v/>
       </c>
       <c r="O19" s="32" t="str">
-        <f>IF(_outCoke_day_hour!M15="","",_outCoke_day_hour!M15)</f>
+        <f>IF(_speed_day_hour!M15="","",_speed_day_hour!M15)</f>
         <v/>
       </c>
       <c r="P19" s="33" t="str">
-        <f>IF(_outCoke_day_hour!N15="","",_outCoke_day_hour!N15)</f>
+        <f>IF(_speed_day_hour!N15="","",_speed_day_hour!N15)</f>
         <v/>
       </c>
       <c r="Q19" s="33" t="str">
-        <f>IF(_outCoke_day_hour!O15="","",_outCoke_day_hour!O15)</f>
+        <f>IF(_speed_day_hour!O15="","",_speed_day_hour!O15)</f>
         <v/>
       </c>
       <c r="R19" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P15="","",_outCoke_day_hour!P15)</f>
+        <f>IF(_speed_day_hour!P15="","",_speed_day_hour!P15)</f>
         <v/>
       </c>
       <c r="S19" s="34" t="str">
-        <f>IF(_outCoke_day_hour!Q15="","",_outCoke_day_hour!Q15)</f>
+        <f>IF(_speed_day_hour!Q15="","",_speed_day_hour!Q15)</f>
         <v/>
       </c>
       <c r="T19" s="2"/>
@@ -7967,71 +7967,71 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="C20" s="31" t="str">
-        <f>IF(_outCoke_day_hour!A16="","",_outCoke_day_hour!A16)</f>
+        <f>IF(_speed_day_hour!A16="","",_speed_day_hour!A16)</f>
         <v/>
       </c>
       <c r="D20" s="31" t="str">
-        <f>IF(_outCoke_day_hour!B16="","",_outCoke_day_hour!B16)</f>
+        <f>IF(_speed_day_hour!B16="","",_speed_day_hour!B16)</f>
         <v/>
       </c>
       <c r="E20" s="31" t="str">
-        <f>IF(_outCoke_day_hour!C16="","",_outCoke_day_hour!C16)</f>
+        <f>IF(_speed_day_hour!C16="","",_speed_day_hour!C16)</f>
         <v/>
       </c>
       <c r="F20" s="31" t="str">
-        <f>IF(_outCoke_day_hour!D16="","",_outCoke_day_hour!D16)</f>
+        <f>IF(_speed_day_hour!D16="","",_speed_day_hour!D16)</f>
         <v/>
       </c>
       <c r="G20" s="31" t="str">
-        <f>IF(_outCoke_day_hour!E16="","",_outCoke_day_hour!E16)</f>
+        <f>IF(_speed_day_hour!E16="","",_speed_day_hour!E16)</f>
         <v/>
       </c>
       <c r="H20" s="31" t="str">
-        <f>IF(_outCoke_day_hour!F16="","",_outCoke_day_hour!F16)</f>
+        <f>IF(_speed_day_hour!F16="","",_speed_day_hour!F16)</f>
         <v/>
       </c>
       <c r="I20" s="31" t="str">
-        <f>IF(_outCoke_day_hour!G16="","",_outCoke_day_hour!G16)</f>
+        <f>IF(_speed_day_hour!G16="","",_speed_day_hour!G16)</f>
         <v/>
       </c>
       <c r="J20" s="32" t="str">
-        <f>IF(_outCoke_day_hour!H16="","",_outCoke_day_hour!H16)</f>
+        <f>IF(_speed_day_hour!H16="","",_speed_day_hour!H16)</f>
         <v/>
       </c>
       <c r="K20" s="31" t="str">
-        <f>IF(_outCoke_day_hour!I16="","",_outCoke_day_hour!I16)</f>
+        <f>IF(_speed_day_hour!I16="","",_speed_day_hour!I16)</f>
         <v/>
       </c>
       <c r="L20" s="31" t="str">
-        <f>IF(_outCoke_day_hour!J16="","",_outCoke_day_hour!J16)</f>
+        <f>IF(_speed_day_hour!J16="","",_speed_day_hour!J16)</f>
         <v/>
       </c>
       <c r="M20" s="32" t="str">
-        <f>IF(_outCoke_day_hour!K16="","",_outCoke_day_hour!K16)</f>
+        <f>IF(_speed_day_hour!K16="","",_speed_day_hour!K16)</f>
         <v/>
       </c>
       <c r="N20" s="32" t="str">
-        <f>IF(_outCoke_day_hour!L16="","",_outCoke_day_hour!L16)</f>
+        <f>IF(_speed_day_hour!L16="","",_speed_day_hour!L16)</f>
         <v/>
       </c>
       <c r="O20" s="32" t="str">
-        <f>IF(_outCoke_day_hour!M16="","",_outCoke_day_hour!M16)</f>
+        <f>IF(_speed_day_hour!M16="","",_speed_day_hour!M16)</f>
         <v/>
       </c>
       <c r="P20" s="33" t="str">
-        <f>IF(_outCoke_day_hour!N16="","",_outCoke_day_hour!N16)</f>
+        <f>IF(_speed_day_hour!N16="","",_speed_day_hour!N16)</f>
         <v/>
       </c>
       <c r="Q20" s="33" t="str">
-        <f>IF(_outCoke_day_hour!O16="","",_outCoke_day_hour!O16)</f>
+        <f>IF(_speed_day_hour!O16="","",_speed_day_hour!O16)</f>
         <v/>
       </c>
       <c r="R20" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P16="","",_outCoke_day_hour!P16)</f>
+        <f>IF(_speed_day_hour!P16="","",_speed_day_hour!P16)</f>
         <v/>
       </c>
       <c r="S20" s="34" t="str">
-        <f>IF(_outCoke_day_hour!Q16="","",_outCoke_day_hour!Q16)</f>
+        <f>IF(_speed_day_hour!Q16="","",_speed_day_hour!Q16)</f>
         <v/>
       </c>
       <c r="T20" s="2"/>
@@ -8276,71 +8276,71 @@
         <v>0.625</v>
       </c>
       <c r="C21" s="31" t="str">
-        <f>IF(_outCoke_day_hour!A17="","",_outCoke_day_hour!A17)</f>
+        <f>IF(_speed_day_hour!A17="","",_speed_day_hour!A17)</f>
         <v/>
       </c>
       <c r="D21" s="31" t="str">
-        <f>IF(_outCoke_day_hour!B17="","",_outCoke_day_hour!B17)</f>
+        <f>IF(_speed_day_hour!B17="","",_speed_day_hour!B17)</f>
         <v/>
       </c>
       <c r="E21" s="31" t="str">
-        <f>IF(_outCoke_day_hour!C17="","",_outCoke_day_hour!C17)</f>
+        <f>IF(_speed_day_hour!C17="","",_speed_day_hour!C17)</f>
         <v/>
       </c>
       <c r="F21" s="31" t="str">
-        <f>IF(_outCoke_day_hour!D17="","",_outCoke_day_hour!D17)</f>
+        <f>IF(_speed_day_hour!D17="","",_speed_day_hour!D17)</f>
         <v/>
       </c>
       <c r="G21" s="31" t="str">
-        <f>IF(_outCoke_day_hour!E17="","",_outCoke_day_hour!E17)</f>
+        <f>IF(_speed_day_hour!E17="","",_speed_day_hour!E17)</f>
         <v/>
       </c>
       <c r="H21" s="31" t="str">
-        <f>IF(_outCoke_day_hour!F17="","",_outCoke_day_hour!F17)</f>
+        <f>IF(_speed_day_hour!F17="","",_speed_day_hour!F17)</f>
         <v/>
       </c>
       <c r="I21" s="31" t="str">
-        <f>IF(_outCoke_day_hour!G17="","",_outCoke_day_hour!G17)</f>
+        <f>IF(_speed_day_hour!G17="","",_speed_day_hour!G17)</f>
         <v/>
       </c>
       <c r="J21" s="32" t="str">
-        <f>IF(_outCoke_day_hour!H17="","",_outCoke_day_hour!H17)</f>
+        <f>IF(_speed_day_hour!H17="","",_speed_day_hour!H17)</f>
         <v/>
       </c>
       <c r="K21" s="31" t="str">
-        <f>IF(_outCoke_day_hour!I17="","",_outCoke_day_hour!I17)</f>
+        <f>IF(_speed_day_hour!I17="","",_speed_day_hour!I17)</f>
         <v/>
       </c>
       <c r="L21" s="31" t="str">
-        <f>IF(_outCoke_day_hour!J17="","",_outCoke_day_hour!J17)</f>
+        <f>IF(_speed_day_hour!J17="","",_speed_day_hour!J17)</f>
         <v/>
       </c>
       <c r="M21" s="32" t="str">
-        <f>IF(_outCoke_day_hour!K17="","",_outCoke_day_hour!K17)</f>
+        <f>IF(_speed_day_hour!K17="","",_speed_day_hour!K17)</f>
         <v/>
       </c>
       <c r="N21" s="32" t="str">
-        <f>IF(_outCoke_day_hour!L17="","",_outCoke_day_hour!L17)</f>
+        <f>IF(_speed_day_hour!L17="","",_speed_day_hour!L17)</f>
         <v/>
       </c>
       <c r="O21" s="32" t="str">
-        <f>IF(_outCoke_day_hour!M17="","",_outCoke_day_hour!M17)</f>
+        <f>IF(_speed_day_hour!M17="","",_speed_day_hour!M17)</f>
         <v/>
       </c>
       <c r="P21" s="33" t="str">
-        <f>IF(_outCoke_day_hour!N17="","",_outCoke_day_hour!N17)</f>
+        <f>IF(_speed_day_hour!N17="","",_speed_day_hour!N17)</f>
         <v/>
       </c>
       <c r="Q21" s="33" t="str">
-        <f>IF(_outCoke_day_hour!O17="","",_outCoke_day_hour!O17)</f>
+        <f>IF(_speed_day_hour!O17="","",_speed_day_hour!O17)</f>
         <v/>
       </c>
       <c r="R21" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P17="","",_outCoke_day_hour!P17)</f>
+        <f>IF(_speed_day_hour!P17="","",_speed_day_hour!P17)</f>
         <v/>
       </c>
       <c r="S21" s="34" t="str">
-        <f>IF(_outCoke_day_hour!Q17="","",_outCoke_day_hour!Q17)</f>
+        <f>IF(_speed_day_hour!Q17="","",_speed_day_hour!Q17)</f>
         <v/>
       </c>
       <c r="T21" s="2"/>
@@ -8585,71 +8585,71 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="C22" s="31" t="str">
-        <f>IF(_outCoke_day_hour!A18="","",_outCoke_day_hour!A18)</f>
+        <f>IF(_speed_day_hour!A18="","",_speed_day_hour!A18)</f>
         <v/>
       </c>
       <c r="D22" s="31" t="str">
-        <f>IF(_outCoke_day_hour!B18="","",_outCoke_day_hour!B18)</f>
+        <f>IF(_speed_day_hour!B18="","",_speed_day_hour!B18)</f>
         <v/>
       </c>
       <c r="E22" s="31" t="str">
-        <f>IF(_outCoke_day_hour!C18="","",_outCoke_day_hour!C18)</f>
+        <f>IF(_speed_day_hour!C18="","",_speed_day_hour!C18)</f>
         <v/>
       </c>
       <c r="F22" s="31" t="str">
-        <f>IF(_outCoke_day_hour!D18="","",_outCoke_day_hour!D18)</f>
+        <f>IF(_speed_day_hour!D18="","",_speed_day_hour!D18)</f>
         <v/>
       </c>
       <c r="G22" s="31" t="str">
-        <f>IF(_outCoke_day_hour!E18="","",_outCoke_day_hour!E18)</f>
+        <f>IF(_speed_day_hour!E18="","",_speed_day_hour!E18)</f>
         <v/>
       </c>
       <c r="H22" s="31" t="str">
-        <f>IF(_outCoke_day_hour!F18="","",_outCoke_day_hour!F18)</f>
+        <f>IF(_speed_day_hour!F18="","",_speed_day_hour!F18)</f>
         <v/>
       </c>
       <c r="I22" s="31" t="str">
-        <f>IF(_outCoke_day_hour!G18="","",_outCoke_day_hour!G18)</f>
+        <f>IF(_speed_day_hour!G18="","",_speed_day_hour!G18)</f>
         <v/>
       </c>
       <c r="J22" s="32" t="str">
-        <f>IF(_outCoke_day_hour!H18="","",_outCoke_day_hour!H18)</f>
+        <f>IF(_speed_day_hour!H18="","",_speed_day_hour!H18)</f>
         <v/>
       </c>
       <c r="K22" s="31" t="str">
-        <f>IF(_outCoke_day_hour!I18="","",_outCoke_day_hour!I18)</f>
+        <f>IF(_speed_day_hour!I18="","",_speed_day_hour!I18)</f>
         <v/>
       </c>
       <c r="L22" s="31" t="str">
-        <f>IF(_outCoke_day_hour!J18="","",_outCoke_day_hour!J18)</f>
+        <f>IF(_speed_day_hour!J18="","",_speed_day_hour!J18)</f>
         <v/>
       </c>
       <c r="M22" s="32" t="str">
-        <f>IF(_outCoke_day_hour!K18="","",_outCoke_day_hour!K18)</f>
+        <f>IF(_speed_day_hour!K18="","",_speed_day_hour!K18)</f>
         <v/>
       </c>
       <c r="N22" s="32" t="str">
-        <f>IF(_outCoke_day_hour!L18="","",_outCoke_day_hour!L18)</f>
+        <f>IF(_speed_day_hour!L18="","",_speed_day_hour!L18)</f>
         <v/>
       </c>
       <c r="O22" s="32" t="str">
-        <f>IF(_outCoke_day_hour!M18="","",_outCoke_day_hour!M18)</f>
+        <f>IF(_speed_day_hour!M18="","",_speed_day_hour!M18)</f>
         <v/>
       </c>
       <c r="P22" s="33" t="str">
-        <f>IF(_outCoke_day_hour!N18="","",_outCoke_day_hour!N18)</f>
+        <f>IF(_speed_day_hour!N18="","",_speed_day_hour!N18)</f>
         <v/>
       </c>
       <c r="Q22" s="33" t="str">
-        <f>IF(_outCoke_day_hour!O18="","",_outCoke_day_hour!O18)</f>
+        <f>IF(_speed_day_hour!O18="","",_speed_day_hour!O18)</f>
         <v/>
       </c>
       <c r="R22" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P18="","",_outCoke_day_hour!P18)</f>
+        <f>IF(_speed_day_hour!P18="","",_speed_day_hour!P18)</f>
         <v/>
       </c>
       <c r="S22" s="34" t="str">
-        <f>IF(_outCoke_day_hour!Q18="","",_outCoke_day_hour!Q18)</f>
+        <f>IF(_speed_day_hour!Q18="","",_speed_day_hour!Q18)</f>
         <v/>
       </c>
       <c r="T22" s="2"/>
@@ -8894,71 +8894,71 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C23" s="31" t="str">
-        <f>IF(_outCoke_day_hour!A19="","",_outCoke_day_hour!A19)</f>
+        <f>IF(_speed_day_hour!A19="","",_speed_day_hour!A19)</f>
         <v/>
       </c>
       <c r="D23" s="31" t="str">
-        <f>IF(_outCoke_day_hour!B19="","",_outCoke_day_hour!B19)</f>
+        <f>IF(_speed_day_hour!B19="","",_speed_day_hour!B19)</f>
         <v/>
       </c>
       <c r="E23" s="31" t="str">
-        <f>IF(_outCoke_day_hour!C19="","",_outCoke_day_hour!C19)</f>
+        <f>IF(_speed_day_hour!C19="","",_speed_day_hour!C19)</f>
         <v/>
       </c>
       <c r="F23" s="31" t="str">
-        <f>IF(_outCoke_day_hour!D19="","",_outCoke_day_hour!D19)</f>
+        <f>IF(_speed_day_hour!D19="","",_speed_day_hour!D19)</f>
         <v/>
       </c>
       <c r="G23" s="31" t="str">
-        <f>IF(_outCoke_day_hour!E19="","",_outCoke_day_hour!E19)</f>
+        <f>IF(_speed_day_hour!E19="","",_speed_day_hour!E19)</f>
         <v/>
       </c>
       <c r="H23" s="31" t="str">
-        <f>IF(_outCoke_day_hour!F19="","",_outCoke_day_hour!F19)</f>
+        <f>IF(_speed_day_hour!F19="","",_speed_day_hour!F19)</f>
         <v/>
       </c>
       <c r="I23" s="31" t="str">
-        <f>IF(_outCoke_day_hour!G19="","",_outCoke_day_hour!G19)</f>
+        <f>IF(_speed_day_hour!G19="","",_speed_day_hour!G19)</f>
         <v/>
       </c>
       <c r="J23" s="32" t="str">
-        <f>IF(_outCoke_day_hour!H19="","",_outCoke_day_hour!H19)</f>
+        <f>IF(_speed_day_hour!H19="","",_speed_day_hour!H19)</f>
         <v/>
       </c>
       <c r="K23" s="31" t="str">
-        <f>IF(_outCoke_day_hour!I19="","",_outCoke_day_hour!I19)</f>
+        <f>IF(_speed_day_hour!I19="","",_speed_day_hour!I19)</f>
         <v/>
       </c>
       <c r="L23" s="31" t="str">
-        <f>IF(_outCoke_day_hour!J19="","",_outCoke_day_hour!J19)</f>
+        <f>IF(_speed_day_hour!J19="","",_speed_day_hour!J19)</f>
         <v/>
       </c>
       <c r="M23" s="32" t="str">
-        <f>IF(_outCoke_day_hour!K19="","",_outCoke_day_hour!K19)</f>
+        <f>IF(_speed_day_hour!K19="","",_speed_day_hour!K19)</f>
         <v/>
       </c>
       <c r="N23" s="32" t="str">
-        <f>IF(_outCoke_day_hour!L19="","",_outCoke_day_hour!L19)</f>
+        <f>IF(_speed_day_hour!L19="","",_speed_day_hour!L19)</f>
         <v/>
       </c>
       <c r="O23" s="32" t="str">
-        <f>IF(_outCoke_day_hour!M19="","",_outCoke_day_hour!M19)</f>
+        <f>IF(_speed_day_hour!M19="","",_speed_day_hour!M19)</f>
         <v/>
       </c>
       <c r="P23" s="33" t="str">
-        <f>IF(_outCoke_day_hour!N19="","",_outCoke_day_hour!N19)</f>
+        <f>IF(_speed_day_hour!N19="","",_speed_day_hour!N19)</f>
         <v/>
       </c>
       <c r="Q23" s="33" t="str">
-        <f>IF(_outCoke_day_hour!O19="","",_outCoke_day_hour!O19)</f>
+        <f>IF(_speed_day_hour!O19="","",_speed_day_hour!O19)</f>
         <v/>
       </c>
       <c r="R23" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P19="","",_outCoke_day_hour!P19)</f>
+        <f>IF(_speed_day_hour!P19="","",_speed_day_hour!P19)</f>
         <v/>
       </c>
       <c r="S23" s="34" t="str">
-        <f>IF(_outCoke_day_hour!Q19="","",_outCoke_day_hour!Q19)</f>
+        <f>IF(_speed_day_hour!Q19="","",_speed_day_hour!Q19)</f>
         <v/>
       </c>
       <c r="T23" s="2"/>
@@ -9203,71 +9203,71 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="31" t="str">
-        <f>IF(_outCoke_day_hour!A20="","",_outCoke_day_hour!A20)</f>
+        <f>IF(_speed_day_hour!A20="","",_speed_day_hour!A20)</f>
         <v/>
       </c>
       <c r="D24" s="31" t="str">
-        <f>IF(_outCoke_day_hour!B20="","",_outCoke_day_hour!B20)</f>
+        <f>IF(_speed_day_hour!B20="","",_speed_day_hour!B20)</f>
         <v/>
       </c>
       <c r="E24" s="31" t="str">
-        <f>IF(_outCoke_day_hour!C20="","",_outCoke_day_hour!C20)</f>
+        <f>IF(_speed_day_hour!C20="","",_speed_day_hour!C20)</f>
         <v/>
       </c>
       <c r="F24" s="31" t="str">
-        <f>IF(_outCoke_day_hour!D20="","",_outCoke_day_hour!D20)</f>
+        <f>IF(_speed_day_hour!D20="","",_speed_day_hour!D20)</f>
         <v/>
       </c>
       <c r="G24" s="31" t="str">
-        <f>IF(_outCoke_day_hour!E20="","",_outCoke_day_hour!E20)</f>
+        <f>IF(_speed_day_hour!E20="","",_speed_day_hour!E20)</f>
         <v/>
       </c>
       <c r="H24" s="31" t="str">
-        <f>IF(_outCoke_day_hour!F20="","",_outCoke_day_hour!F20)</f>
+        <f>IF(_speed_day_hour!F20="","",_speed_day_hour!F20)</f>
         <v/>
       </c>
       <c r="I24" s="31" t="str">
-        <f>IF(_outCoke_day_hour!G20="","",_outCoke_day_hour!G20)</f>
+        <f>IF(_speed_day_hour!G20="","",_speed_day_hour!G20)</f>
         <v/>
       </c>
       <c r="J24" s="32" t="str">
-        <f>IF(_outCoke_day_hour!H20="","",_outCoke_day_hour!H20)</f>
+        <f>IF(_speed_day_hour!H20="","",_speed_day_hour!H20)</f>
         <v/>
       </c>
       <c r="K24" s="31" t="str">
-        <f>IF(_outCoke_day_hour!I20="","",_outCoke_day_hour!I20)</f>
+        <f>IF(_speed_day_hour!I20="","",_speed_day_hour!I20)</f>
         <v/>
       </c>
       <c r="L24" s="31" t="str">
-        <f>IF(_outCoke_day_hour!J20="","",_outCoke_day_hour!J20)</f>
+        <f>IF(_speed_day_hour!J20="","",_speed_day_hour!J20)</f>
         <v/>
       </c>
       <c r="M24" s="32" t="str">
-        <f>IF(_outCoke_day_hour!K20="","",_outCoke_day_hour!K20)</f>
+        <f>IF(_speed_day_hour!K20="","",_speed_day_hour!K20)</f>
         <v/>
       </c>
       <c r="N24" s="32" t="str">
-        <f>IF(_outCoke_day_hour!L20="","",_outCoke_day_hour!L20)</f>
+        <f>IF(_speed_day_hour!L20="","",_speed_day_hour!L20)</f>
         <v/>
       </c>
       <c r="O24" s="32" t="str">
-        <f>IF(_outCoke_day_hour!M20="","",_outCoke_day_hour!M20)</f>
+        <f>IF(_speed_day_hour!M20="","",_speed_day_hour!M20)</f>
         <v/>
       </c>
       <c r="P24" s="33" t="str">
-        <f>IF(_outCoke_day_hour!N20="","",_outCoke_day_hour!N20)</f>
+        <f>IF(_speed_day_hour!N20="","",_speed_day_hour!N20)</f>
         <v/>
       </c>
       <c r="Q24" s="33" t="str">
-        <f>IF(_outCoke_day_hour!O20="","",_outCoke_day_hour!O20)</f>
+        <f>IF(_speed_day_hour!O20="","",_speed_day_hour!O20)</f>
         <v/>
       </c>
       <c r="R24" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P20="","",_outCoke_day_hour!P20)</f>
+        <f>IF(_speed_day_hour!P20="","",_speed_day_hour!P20)</f>
         <v/>
       </c>
       <c r="S24" s="34" t="str">
-        <f>IF(_outCoke_day_hour!Q20="","",_outCoke_day_hour!Q20)</f>
+        <f>IF(_speed_day_hour!Q20="","",_speed_day_hour!Q20)</f>
         <v/>
       </c>
       <c r="T24" s="2"/>
@@ -9512,71 +9512,71 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="C25" s="31" t="str">
-        <f>IF(_outCoke_day_hour!A21="","",_outCoke_day_hour!A21)</f>
+        <f>IF(_speed_day_hour!A21="","",_speed_day_hour!A21)</f>
         <v/>
       </c>
       <c r="D25" s="31" t="str">
-        <f>IF(_outCoke_day_hour!B21="","",_outCoke_day_hour!B21)</f>
+        <f>IF(_speed_day_hour!B21="","",_speed_day_hour!B21)</f>
         <v/>
       </c>
       <c r="E25" s="31" t="str">
-        <f>IF(_outCoke_day_hour!C21="","",_outCoke_day_hour!C21)</f>
+        <f>IF(_speed_day_hour!C21="","",_speed_day_hour!C21)</f>
         <v/>
       </c>
       <c r="F25" s="31" t="str">
-        <f>IF(_outCoke_day_hour!D21="","",_outCoke_day_hour!D21)</f>
+        <f>IF(_speed_day_hour!D21="","",_speed_day_hour!D21)</f>
         <v/>
       </c>
       <c r="G25" s="31" t="str">
-        <f>IF(_outCoke_day_hour!E21="","",_outCoke_day_hour!E21)</f>
+        <f>IF(_speed_day_hour!E21="","",_speed_day_hour!E21)</f>
         <v/>
       </c>
       <c r="H25" s="31" t="str">
-        <f>IF(_outCoke_day_hour!F21="","",_outCoke_day_hour!F21)</f>
+        <f>IF(_speed_day_hour!F21="","",_speed_day_hour!F21)</f>
         <v/>
       </c>
       <c r="I25" s="31" t="str">
-        <f>IF(_outCoke_day_hour!G21="","",_outCoke_day_hour!G21)</f>
+        <f>IF(_speed_day_hour!G21="","",_speed_day_hour!G21)</f>
         <v/>
       </c>
       <c r="J25" s="32" t="str">
-        <f>IF(_outCoke_day_hour!H21="","",_outCoke_day_hour!H21)</f>
+        <f>IF(_speed_day_hour!H21="","",_speed_day_hour!H21)</f>
         <v/>
       </c>
       <c r="K25" s="31" t="str">
-        <f>IF(_outCoke_day_hour!I21="","",_outCoke_day_hour!I21)</f>
+        <f>IF(_speed_day_hour!I21="","",_speed_day_hour!I21)</f>
         <v/>
       </c>
       <c r="L25" s="31" t="str">
-        <f>IF(_outCoke_day_hour!J21="","",_outCoke_day_hour!J21)</f>
+        <f>IF(_speed_day_hour!J21="","",_speed_day_hour!J21)</f>
         <v/>
       </c>
       <c r="M25" s="32" t="str">
-        <f>IF(_outCoke_day_hour!K21="","",_outCoke_day_hour!K21)</f>
+        <f>IF(_speed_day_hour!K21="","",_speed_day_hour!K21)</f>
         <v/>
       </c>
       <c r="N25" s="32" t="str">
-        <f>IF(_outCoke_day_hour!L21="","",_outCoke_day_hour!L21)</f>
+        <f>IF(_speed_day_hour!L21="","",_speed_day_hour!L21)</f>
         <v/>
       </c>
       <c r="O25" s="32" t="str">
-        <f>IF(_outCoke_day_hour!M21="","",_outCoke_day_hour!M21)</f>
+        <f>IF(_speed_day_hour!M21="","",_speed_day_hour!M21)</f>
         <v/>
       </c>
       <c r="P25" s="33" t="str">
-        <f>IF(_outCoke_day_hour!N21="","",_outCoke_day_hour!N21)</f>
+        <f>IF(_speed_day_hour!N21="","",_speed_day_hour!N21)</f>
         <v/>
       </c>
       <c r="Q25" s="33" t="str">
-        <f>IF(_outCoke_day_hour!O21="","",_outCoke_day_hour!O21)</f>
+        <f>IF(_speed_day_hour!O21="","",_speed_day_hour!O21)</f>
         <v/>
       </c>
       <c r="R25" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P21="","",_outCoke_day_hour!P21)</f>
+        <f>IF(_speed_day_hour!P21="","",_speed_day_hour!P21)</f>
         <v/>
       </c>
       <c r="S25" s="34" t="str">
-        <f>IF(_outCoke_day_hour!Q21="","",_outCoke_day_hour!Q21)</f>
+        <f>IF(_speed_day_hour!Q21="","",_speed_day_hour!Q21)</f>
         <v/>
       </c>
       <c r="T25" s="2"/>
@@ -9821,71 +9821,71 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="C26" s="31" t="str">
-        <f>IF(_outCoke_day_hour!A22="","",_outCoke_day_hour!A22)</f>
+        <f>IF(_speed_day_hour!A22="","",_speed_day_hour!A22)</f>
         <v/>
       </c>
       <c r="D26" s="31" t="str">
-        <f>IF(_outCoke_day_hour!B22="","",_outCoke_day_hour!B22)</f>
+        <f>IF(_speed_day_hour!B22="","",_speed_day_hour!B22)</f>
         <v/>
       </c>
       <c r="E26" s="31" t="str">
-        <f>IF(_outCoke_day_hour!C22="","",_outCoke_day_hour!C22)</f>
+        <f>IF(_speed_day_hour!C22="","",_speed_day_hour!C22)</f>
         <v/>
       </c>
       <c r="F26" s="31" t="str">
-        <f>IF(_outCoke_day_hour!D22="","",_outCoke_day_hour!D22)</f>
+        <f>IF(_speed_day_hour!D22="","",_speed_day_hour!D22)</f>
         <v/>
       </c>
       <c r="G26" s="31" t="str">
-        <f>IF(_outCoke_day_hour!E22="","",_outCoke_day_hour!E22)</f>
+        <f>IF(_speed_day_hour!E22="","",_speed_day_hour!E22)</f>
         <v/>
       </c>
       <c r="H26" s="31" t="str">
-        <f>IF(_outCoke_day_hour!F22="","",_outCoke_day_hour!F22)</f>
+        <f>IF(_speed_day_hour!F22="","",_speed_day_hour!F22)</f>
         <v/>
       </c>
       <c r="I26" s="31" t="str">
-        <f>IF(_outCoke_day_hour!G22="","",_outCoke_day_hour!G22)</f>
+        <f>IF(_speed_day_hour!G22="","",_speed_day_hour!G22)</f>
         <v/>
       </c>
       <c r="J26" s="32" t="str">
-        <f>IF(_outCoke_day_hour!H22="","",_outCoke_day_hour!H22)</f>
+        <f>IF(_speed_day_hour!H22="","",_speed_day_hour!H22)</f>
         <v/>
       </c>
       <c r="K26" s="31" t="str">
-        <f>IF(_outCoke_day_hour!I22="","",_outCoke_day_hour!I22)</f>
+        <f>IF(_speed_day_hour!I22="","",_speed_day_hour!I22)</f>
         <v/>
       </c>
       <c r="L26" s="31" t="str">
-        <f>IF(_outCoke_day_hour!J22="","",_outCoke_day_hour!J22)</f>
+        <f>IF(_speed_day_hour!J22="","",_speed_day_hour!J22)</f>
         <v/>
       </c>
       <c r="M26" s="32" t="str">
-        <f>IF(_outCoke_day_hour!K22="","",_outCoke_day_hour!K22)</f>
+        <f>IF(_speed_day_hour!K22="","",_speed_day_hour!K22)</f>
         <v/>
       </c>
       <c r="N26" s="32" t="str">
-        <f>IF(_outCoke_day_hour!L22="","",_outCoke_day_hour!L22)</f>
+        <f>IF(_speed_day_hour!L22="","",_speed_day_hour!L22)</f>
         <v/>
       </c>
       <c r="O26" s="32" t="str">
-        <f>IF(_outCoke_day_hour!M22="","",_outCoke_day_hour!M22)</f>
+        <f>IF(_speed_day_hour!M22="","",_speed_day_hour!M22)</f>
         <v/>
       </c>
       <c r="P26" s="33" t="str">
-        <f>IF(_outCoke_day_hour!N22="","",_outCoke_day_hour!N22)</f>
+        <f>IF(_speed_day_hour!N22="","",_speed_day_hour!N22)</f>
         <v/>
       </c>
       <c r="Q26" s="33" t="str">
-        <f>IF(_outCoke_day_hour!O22="","",_outCoke_day_hour!O22)</f>
+        <f>IF(_speed_day_hour!O22="","",_speed_day_hour!O22)</f>
         <v/>
       </c>
       <c r="R26" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P22="","",_outCoke_day_hour!P22)</f>
+        <f>IF(_speed_day_hour!P22="","",_speed_day_hour!P22)</f>
         <v/>
       </c>
       <c r="S26" s="34" t="str">
-        <f>IF(_outCoke_day_hour!Q22="","",_outCoke_day_hour!Q22)</f>
+        <f>IF(_speed_day_hour!Q22="","",_speed_day_hour!Q22)</f>
         <v/>
       </c>
       <c r="T26" s="2"/>
@@ -10130,71 +10130,71 @@
         <v>0.875</v>
       </c>
       <c r="C27" s="31" t="str">
-        <f>IF(_outCoke_day_hour!A23="","",_outCoke_day_hour!A23)</f>
+        <f>IF(_speed_day_hour!A23="","",_speed_day_hour!A23)</f>
         <v/>
       </c>
       <c r="D27" s="31" t="str">
-        <f>IF(_outCoke_day_hour!B23="","",_outCoke_day_hour!B23)</f>
+        <f>IF(_speed_day_hour!B23="","",_speed_day_hour!B23)</f>
         <v/>
       </c>
       <c r="E27" s="31" t="str">
-        <f>IF(_outCoke_day_hour!C23="","",_outCoke_day_hour!C23)</f>
+        <f>IF(_speed_day_hour!C23="","",_speed_day_hour!C23)</f>
         <v/>
       </c>
       <c r="F27" s="31" t="str">
-        <f>IF(_outCoke_day_hour!D23="","",_outCoke_day_hour!D23)</f>
+        <f>IF(_speed_day_hour!D23="","",_speed_day_hour!D23)</f>
         <v/>
       </c>
       <c r="G27" s="31" t="str">
-        <f>IF(_outCoke_day_hour!E23="","",_outCoke_day_hour!E23)</f>
+        <f>IF(_speed_day_hour!E23="","",_speed_day_hour!E23)</f>
         <v/>
       </c>
       <c r="H27" s="31" t="str">
-        <f>IF(_outCoke_day_hour!F23="","",_outCoke_day_hour!F23)</f>
+        <f>IF(_speed_day_hour!F23="","",_speed_day_hour!F23)</f>
         <v/>
       </c>
       <c r="I27" s="31" t="str">
-        <f>IF(_outCoke_day_hour!G23="","",_outCoke_day_hour!G23)</f>
+        <f>IF(_speed_day_hour!G23="","",_speed_day_hour!G23)</f>
         <v/>
       </c>
       <c r="J27" s="32" t="str">
-        <f>IF(_outCoke_day_hour!H23="","",_outCoke_day_hour!H23)</f>
+        <f>IF(_speed_day_hour!H23="","",_speed_day_hour!H23)</f>
         <v/>
       </c>
       <c r="K27" s="31" t="str">
-        <f>IF(_outCoke_day_hour!I23="","",_outCoke_day_hour!I23)</f>
+        <f>IF(_speed_day_hour!I23="","",_speed_day_hour!I23)</f>
         <v/>
       </c>
       <c r="L27" s="31" t="str">
-        <f>IF(_outCoke_day_hour!J23="","",_outCoke_day_hour!J23)</f>
+        <f>IF(_speed_day_hour!J23="","",_speed_day_hour!J23)</f>
         <v/>
       </c>
       <c r="M27" s="32" t="str">
-        <f>IF(_outCoke_day_hour!K23="","",_outCoke_day_hour!K23)</f>
+        <f>IF(_speed_day_hour!K23="","",_speed_day_hour!K23)</f>
         <v/>
       </c>
       <c r="N27" s="32" t="str">
-        <f>IF(_outCoke_day_hour!L23="","",_outCoke_day_hour!L23)</f>
+        <f>IF(_speed_day_hour!L23="","",_speed_day_hour!L23)</f>
         <v/>
       </c>
       <c r="O27" s="32" t="str">
-        <f>IF(_outCoke_day_hour!M23="","",_outCoke_day_hour!M23)</f>
+        <f>IF(_speed_day_hour!M23="","",_speed_day_hour!M23)</f>
         <v/>
       </c>
       <c r="P27" s="33" t="str">
-        <f>IF(_outCoke_day_hour!N23="","",_outCoke_day_hour!N23)</f>
+        <f>IF(_speed_day_hour!N23="","",_speed_day_hour!N23)</f>
         <v/>
       </c>
       <c r="Q27" s="33" t="str">
-        <f>IF(_outCoke_day_hour!O23="","",_outCoke_day_hour!O23)</f>
+        <f>IF(_speed_day_hour!O23="","",_speed_day_hour!O23)</f>
         <v/>
       </c>
       <c r="R27" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P23="","",_outCoke_day_hour!P23)</f>
+        <f>IF(_speed_day_hour!P23="","",_speed_day_hour!P23)</f>
         <v/>
       </c>
       <c r="S27" s="34" t="str">
-        <f>IF(_outCoke_day_hour!Q23="","",_outCoke_day_hour!Q23)</f>
+        <f>IF(_speed_day_hour!Q23="","",_speed_day_hour!Q23)</f>
         <v/>
       </c>
       <c r="T27" s="2"/>
@@ -10439,71 +10439,71 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="C28" s="31" t="str">
-        <f>IF(_outCoke_day_hour!A24="","",_outCoke_day_hour!A24)</f>
+        <f>IF(_speed_day_hour!A24="","",_speed_day_hour!A24)</f>
         <v/>
       </c>
       <c r="D28" s="31" t="str">
-        <f>IF(_outCoke_day_hour!B24="","",_outCoke_day_hour!B24)</f>
+        <f>IF(_speed_day_hour!B24="","",_speed_day_hour!B24)</f>
         <v/>
       </c>
       <c r="E28" s="31" t="str">
-        <f>IF(_outCoke_day_hour!C24="","",_outCoke_day_hour!C24)</f>
+        <f>IF(_speed_day_hour!C24="","",_speed_day_hour!C24)</f>
         <v/>
       </c>
       <c r="F28" s="31" t="str">
-        <f>IF(_outCoke_day_hour!D24="","",_outCoke_day_hour!D24)</f>
+        <f>IF(_speed_day_hour!D24="","",_speed_day_hour!D24)</f>
         <v/>
       </c>
       <c r="G28" s="31" t="str">
-        <f>IF(_outCoke_day_hour!E24="","",_outCoke_day_hour!E24)</f>
+        <f>IF(_speed_day_hour!E24="","",_speed_day_hour!E24)</f>
         <v/>
       </c>
       <c r="H28" s="31" t="str">
-        <f>IF(_outCoke_day_hour!F24="","",_outCoke_day_hour!F24)</f>
+        <f>IF(_speed_day_hour!F24="","",_speed_day_hour!F24)</f>
         <v/>
       </c>
       <c r="I28" s="31" t="str">
-        <f>IF(_outCoke_day_hour!G24="","",_outCoke_day_hour!G24)</f>
+        <f>IF(_speed_day_hour!G24="","",_speed_day_hour!G24)</f>
         <v/>
       </c>
       <c r="J28" s="32" t="str">
-        <f>IF(_outCoke_day_hour!H24="","",_outCoke_day_hour!H24)</f>
+        <f>IF(_speed_day_hour!H24="","",_speed_day_hour!H24)</f>
         <v/>
       </c>
       <c r="K28" s="31" t="str">
-        <f>IF(_outCoke_day_hour!I24="","",_outCoke_day_hour!I24)</f>
+        <f>IF(_speed_day_hour!I24="","",_speed_day_hour!I24)</f>
         <v/>
       </c>
       <c r="L28" s="31" t="str">
-        <f>IF(_outCoke_day_hour!J24="","",_outCoke_day_hour!J24)</f>
+        <f>IF(_speed_day_hour!J24="","",_speed_day_hour!J24)</f>
         <v/>
       </c>
       <c r="M28" s="32" t="str">
-        <f>IF(_outCoke_day_hour!K24="","",_outCoke_day_hour!K24)</f>
+        <f>IF(_speed_day_hour!K24="","",_speed_day_hour!K24)</f>
         <v/>
       </c>
       <c r="N28" s="32" t="str">
-        <f>IF(_outCoke_day_hour!L24="","",_outCoke_day_hour!L24)</f>
+        <f>IF(_speed_day_hour!L24="","",_speed_day_hour!L24)</f>
         <v/>
       </c>
       <c r="O28" s="32" t="str">
-        <f>IF(_outCoke_day_hour!M24="","",_outCoke_day_hour!M24)</f>
+        <f>IF(_speed_day_hour!M24="","",_speed_day_hour!M24)</f>
         <v/>
       </c>
       <c r="P28" s="33" t="str">
-        <f>IF(_outCoke_day_hour!N24="","",_outCoke_day_hour!N24)</f>
+        <f>IF(_speed_day_hour!N24="","",_speed_day_hour!N24)</f>
         <v/>
       </c>
       <c r="Q28" s="33" t="str">
-        <f>IF(_outCoke_day_hour!O24="","",_outCoke_day_hour!O24)</f>
+        <f>IF(_speed_day_hour!O24="","",_speed_day_hour!O24)</f>
         <v/>
       </c>
       <c r="R28" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P24="","",_outCoke_day_hour!P24)</f>
+        <f>IF(_speed_day_hour!P24="","",_speed_day_hour!P24)</f>
         <v/>
       </c>
       <c r="S28" s="34" t="str">
-        <f>IF(_outCoke_day_hour!Q24="","",_outCoke_day_hour!Q24)</f>
+        <f>IF(_speed_day_hour!Q24="","",_speed_day_hour!Q24)</f>
         <v/>
       </c>
       <c r="T28" s="2"/>
@@ -10748,71 +10748,71 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="C29" s="31" t="str">
-        <f>IF(_outCoke_day_hour!A25="","",_outCoke_day_hour!A25)</f>
+        <f>IF(_speed_day_hour!A25="","",_speed_day_hour!A25)</f>
         <v/>
       </c>
       <c r="D29" s="31" t="str">
-        <f>IF(_outCoke_day_hour!B25="","",_outCoke_day_hour!B25)</f>
+        <f>IF(_speed_day_hour!B25="","",_speed_day_hour!B25)</f>
         <v/>
       </c>
       <c r="E29" s="31" t="str">
-        <f>IF(_outCoke_day_hour!C25="","",_outCoke_day_hour!C25)</f>
+        <f>IF(_speed_day_hour!C25="","",_speed_day_hour!C25)</f>
         <v/>
       </c>
       <c r="F29" s="31" t="str">
-        <f>IF(_outCoke_day_hour!D25="","",_outCoke_day_hour!D25)</f>
+        <f>IF(_speed_day_hour!D25="","",_speed_day_hour!D25)</f>
         <v/>
       </c>
       <c r="G29" s="31" t="str">
-        <f>IF(_outCoke_day_hour!E25="","",_outCoke_day_hour!E25)</f>
+        <f>IF(_speed_day_hour!E25="","",_speed_day_hour!E25)</f>
         <v/>
       </c>
       <c r="H29" s="31" t="str">
-        <f>IF(_outCoke_day_hour!F25="","",_outCoke_day_hour!F25)</f>
+        <f>IF(_speed_day_hour!F25="","",_speed_day_hour!F25)</f>
         <v/>
       </c>
       <c r="I29" s="31" t="str">
-        <f>IF(_outCoke_day_hour!G25="","",_outCoke_day_hour!G25)</f>
+        <f>IF(_speed_day_hour!G25="","",_speed_day_hour!G25)</f>
         <v/>
       </c>
       <c r="J29" s="32" t="str">
-        <f>IF(_outCoke_day_hour!H25="","",_outCoke_day_hour!H25)</f>
+        <f>IF(_speed_day_hour!H25="","",_speed_day_hour!H25)</f>
         <v/>
       </c>
       <c r="K29" s="31" t="str">
-        <f>IF(_outCoke_day_hour!I25="","",_outCoke_day_hour!I25)</f>
+        <f>IF(_speed_day_hour!I25="","",_speed_day_hour!I25)</f>
         <v/>
       </c>
       <c r="L29" s="31" t="str">
-        <f>IF(_outCoke_day_hour!J25="","",_outCoke_day_hour!J25)</f>
+        <f>IF(_speed_day_hour!J25="","",_speed_day_hour!J25)</f>
         <v/>
       </c>
       <c r="M29" s="32" t="str">
-        <f>IF(_outCoke_day_hour!K25="","",_outCoke_day_hour!K25)</f>
+        <f>IF(_speed_day_hour!K25="","",_speed_day_hour!K25)</f>
         <v/>
       </c>
       <c r="N29" s="32" t="str">
-        <f>IF(_outCoke_day_hour!L25="","",_outCoke_day_hour!L25)</f>
+        <f>IF(_speed_day_hour!L25="","",_speed_day_hour!L25)</f>
         <v/>
       </c>
       <c r="O29" s="32" t="str">
-        <f>IF(_outCoke_day_hour!M25="","",_outCoke_day_hour!M25)</f>
+        <f>IF(_speed_day_hour!M25="","",_speed_day_hour!M25)</f>
         <v/>
       </c>
       <c r="P29" s="33" t="str">
-        <f>IF(_outCoke_day_hour!N25="","",_outCoke_day_hour!N25)</f>
+        <f>IF(_speed_day_hour!N25="","",_speed_day_hour!N25)</f>
         <v/>
       </c>
       <c r="Q29" s="33" t="str">
-        <f>IF(_outCoke_day_hour!O25="","",_outCoke_day_hour!O25)</f>
+        <f>IF(_speed_day_hour!O25="","",_speed_day_hour!O25)</f>
         <v/>
       </c>
       <c r="R29" s="28" t="str">
-        <f>IF(_outCoke_day_hour!P25="","",_outCoke_day_hour!P25)</f>
+        <f>IF(_speed_day_hour!P25="","",_speed_day_hour!P25)</f>
         <v/>
       </c>
       <c r="S29" s="34" t="str">
-        <f>IF(_outCoke_day_hour!Q25="","",_outCoke_day_hour!Q25)</f>
+        <f>IF(_speed_day_hour!Q25="","",_speed_day_hour!Q25)</f>
         <v/>
       </c>
       <c r="T29" s="2"/>
@@ -12608,13 +12608,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="16384" style="1" width="9"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row ht="63" r="1">
       <c r="A1" s="48" t="s">
